--- a/7. 500只股票池/股票池整理.xlsx
+++ b/7. 500只股票池/股票池整理.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,81 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="104">
   <si>
     <t>J2146</t>
   </si>
   <si>
-    <t>J3288</t>
-  </si>
-  <si>
-    <t>J4506</t>
-  </si>
-  <si>
     <t>J4519</t>
   </si>
   <si>
     <t>J4587</t>
   </si>
   <si>
-    <t>J5202</t>
-  </si>
-  <si>
-    <t>J5301</t>
-  </si>
-  <si>
-    <t>J5401</t>
-  </si>
-  <si>
-    <t>J5406</t>
-  </si>
-  <si>
-    <t>J5411</t>
-  </si>
-  <si>
     <t>J5541</t>
   </si>
   <si>
-    <t>J5707</t>
-  </si>
-  <si>
-    <t>J6035</t>
-  </si>
-  <si>
     <t>J6098</t>
   </si>
   <si>
-    <t>J6302</t>
-  </si>
-  <si>
-    <t>J6752</t>
-  </si>
-  <si>
     <t>J6758</t>
   </si>
   <si>
     <t>J6762</t>
   </si>
   <si>
-    <t>J6841</t>
-  </si>
-  <si>
-    <t>J7004</t>
-  </si>
-  <si>
-    <t>J7988</t>
-  </si>
-  <si>
     <t>J8591</t>
-  </si>
-  <si>
-    <t>J9104</t>
-  </si>
-  <si>
-    <t>J9107</t>
-  </si>
-  <si>
-    <t>J9432</t>
   </si>
   <si>
     <t>J9684</t>
@@ -105,13 +55,293 @@
   <si>
     <t>,</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1719</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1911</t>
+  </si>
+  <si>
+    <t>J2175</t>
+  </si>
+  <si>
+    <t>J2181</t>
+  </si>
+  <si>
+    <t>J2379</t>
+  </si>
+  <si>
+    <t>J2593</t>
+  </si>
+  <si>
+    <t>J2651</t>
+  </si>
+  <si>
+    <t>J3038</t>
+  </si>
+  <si>
+    <t>J3116</t>
+  </si>
+  <si>
+    <t>J3349</t>
+  </si>
+  <si>
+    <t>J3436</t>
+  </si>
+  <si>
+    <t>J3626</t>
+  </si>
+  <si>
+    <t>J3659</t>
+  </si>
+  <si>
+    <t>J3765</t>
+  </si>
+  <si>
+    <t>J4021</t>
+  </si>
+  <si>
+    <t>J4088</t>
+  </si>
+  <si>
+    <t>J4204</t>
+  </si>
+  <si>
+    <t>J4307</t>
+  </si>
+  <si>
+    <t>J4568</t>
+  </si>
+  <si>
+    <t>J4613</t>
+  </si>
+  <si>
+    <t>J4661</t>
+  </si>
+  <si>
+    <t>J4689</t>
+  </si>
+  <si>
+    <t>J4704</t>
+  </si>
+  <si>
+    <t>J4819</t>
+  </si>
+  <si>
+    <t>J4848</t>
+  </si>
+  <si>
+    <t>J4967</t>
+  </si>
+  <si>
+    <t>J5334</t>
+  </si>
+  <si>
+    <t>J6146</t>
+  </si>
+  <si>
+    <t>J6305</t>
+  </si>
+  <si>
+    <t>J6479</t>
+  </si>
+  <si>
+    <t>J6501</t>
+  </si>
+  <si>
+    <t>J6504</t>
+  </si>
+  <si>
+    <t>J6532</t>
+  </si>
+  <si>
+    <t>J6727</t>
+  </si>
+  <si>
+    <t>J6845</t>
+  </si>
+  <si>
+    <t>J6857</t>
+  </si>
+  <si>
+    <t>J6902</t>
+  </si>
+  <si>
+    <t>J6920</t>
+  </si>
+  <si>
+    <t>J6923</t>
+  </si>
+  <si>
+    <t>J6965</t>
+  </si>
+  <si>
+    <t>J6976</t>
+  </si>
+  <si>
+    <t>J6988</t>
+  </si>
+  <si>
+    <t>J7201</t>
+  </si>
+  <si>
+    <t>J7202</t>
+  </si>
+  <si>
+    <t>J7211</t>
+  </si>
+  <si>
+    <t>J7309</t>
+  </si>
+  <si>
+    <t>J7729</t>
+  </si>
+  <si>
+    <t>J7735</t>
+  </si>
+  <si>
+    <t>J7832</t>
+  </si>
+  <si>
+    <t>J7911</t>
+  </si>
+  <si>
+    <t>J8002</t>
+  </si>
+  <si>
+    <t>J8015</t>
+  </si>
+  <si>
+    <t>J8035</t>
+  </si>
+  <si>
+    <t>J8056</t>
+  </si>
+  <si>
+    <t>J8111</t>
+  </si>
+  <si>
+    <t>J8279</t>
+  </si>
+  <si>
+    <t>J9418</t>
+  </si>
+  <si>
+    <t>J9519</t>
+  </si>
+  <si>
+    <t>J9613</t>
+  </si>
+  <si>
+    <t>J9744</t>
+  </si>
+  <si>
+    <t>J9787</t>
+  </si>
+  <si>
+    <t>J1820</t>
+  </si>
+  <si>
+    <t>J3092</t>
+  </si>
+  <si>
+    <t>J3769</t>
+  </si>
+  <si>
+    <t>J4716</t>
+  </si>
+  <si>
+    <t>J4751</t>
+  </si>
+  <si>
+    <t>J4755</t>
+  </si>
+  <si>
+    <t>J6273</t>
+  </si>
+  <si>
+    <t>J6361</t>
+  </si>
+  <si>
+    <t>J6728</t>
+  </si>
+  <si>
+    <t>J6869</t>
+  </si>
+  <si>
+    <t>J7741</t>
+  </si>
+  <si>
+    <t>J8113</t>
+  </si>
+  <si>
+    <t>J5214</t>
+  </si>
+  <si>
+    <t>J6674</t>
+  </si>
+  <si>
+    <t>J8919</t>
+  </si>
+  <si>
+    <t>J2331</t>
+  </si>
+  <si>
+    <t>J4507</t>
+  </si>
+  <si>
+    <t>J4684</t>
+  </si>
+  <si>
+    <t>J4768</t>
+  </si>
+  <si>
+    <t>J4921</t>
+  </si>
+  <si>
+    <t>J5802</t>
+  </si>
+  <si>
+    <t>J6134</t>
+  </si>
+  <si>
+    <t>J6235</t>
+  </si>
+  <si>
+    <t>J6326</t>
+  </si>
+  <si>
+    <t>J6723</t>
+  </si>
+  <si>
+    <t>J6753</t>
+  </si>
+  <si>
+    <t>J7259</t>
+  </si>
+  <si>
+    <t>J7276</t>
+  </si>
+  <si>
+    <t>J7747</t>
+  </si>
+  <si>
+    <t>J7947</t>
+  </si>
+  <si>
+    <t>J7974</t>
+  </si>
+  <si>
+    <t>J8031</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +362,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -175,12 +411,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -461,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -474,604 +713,4206 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="str">
-        <f>RIGHT(A1,4)</f>
-        <v>2146</v>
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>8035</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E1" t="str">
         <f>C1&amp;B1&amp;C1&amp;D1</f>
-        <v>"2146",</v>
+        <v>"8035",</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>E1</f>
-        <v>"2146",</v>
+        <v>"8035",</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B26" si="0">RIGHT(A2,4)</f>
-        <v>3288</v>
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>6841</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E26" si="1">C2&amp;B2&amp;C2&amp;D2</f>
-        <v>"3288",</v>
+        <f t="shared" ref="E2:E65" si="0">C2&amp;B2&amp;C2&amp;D2</f>
+        <v>"6841",</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>F1&amp;E2</f>
-        <v>"2146","3288",</v>
+        <v>"8035","6841",</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>4506</v>
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>6857</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="1"/>
-        <v>"4506",</v>
+        <f t="shared" si="0"/>
+        <v>"6857",</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F26" si="2">F2&amp;E3</f>
-        <v>"2146","3288","4506",</v>
+        <f t="shared" ref="F3:F66" si="1">F2&amp;E3</f>
+        <v>"8035","6841","6857",</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>4519</v>
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>6586</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v>"4519",</v>
+        <f t="shared" si="0"/>
+        <v>"6586",</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586",</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>4587</v>
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>6981</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>"4587",</v>
+        <f t="shared" si="0"/>
+        <v>"6981",</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981",</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>5202</v>
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>9843</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>"5202",</v>
+        <f t="shared" si="0"/>
+        <v>"9843",</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843",</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>5301</v>
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>6954</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>"5301",</v>
+        <f t="shared" si="0"/>
+        <v>"6954",</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954",</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>5401</v>
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>5947</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>"5401",</v>
+        <f t="shared" si="0"/>
+        <v>"5947",</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947",</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>5406</v>
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>3349</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>"5406",</v>
+        <f t="shared" si="0"/>
+        <v>"3349",</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349",</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>5411</v>
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>6702</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>"5411",</v>
+        <f t="shared" si="0"/>
+        <v>"6702",</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406","5411",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702",</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>5541</v>
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>4528</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>"5541",</v>
+        <f t="shared" si="0"/>
+        <v>"4528",</v>
       </c>
       <c r="F11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406","5411","5541",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528",</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>5707</v>
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>9684</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>"5707",</v>
+        <f t="shared" si="0"/>
+        <v>"9684",</v>
       </c>
       <c r="F12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406","5411","5541","5707",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684",</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>6035</v>
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>3116</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v>"6035",</v>
+        <f t="shared" si="0"/>
+        <v>"3116",</v>
       </c>
       <c r="F13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406","5411","5541","5707","6035",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116",</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>6098</v>
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>5714</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>"6098",</v>
+        <f t="shared" si="0"/>
+        <v>"5714",</v>
       </c>
       <c r="F14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406","5411","5541","5707","6035","6098",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714",</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>6302</v>
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>3064</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>"6302",</v>
+        <f t="shared" si="0"/>
+        <v>"3064",</v>
       </c>
       <c r="F15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406","5411","5541","5707","6035","6098","6302",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064",</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>6752</v>
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>9787</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v>"6752",</v>
+        <f t="shared" si="0"/>
+        <v>"9787",</v>
       </c>
       <c r="F16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406","5411","5541","5707","6035","6098","6302","6752",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787",</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>6758</v>
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>1963</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>"6758",</v>
+        <f t="shared" si="0"/>
+        <v>"1963",</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406","5411","5541","5707","6035","6098","6302","6752","6758",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963",</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>6762</v>
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>3038</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>"6762",</v>
+        <f t="shared" si="0"/>
+        <v>"3038",</v>
       </c>
       <c r="F18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406","5411","5541","5707","6035","6098","6302","6752","6758","6762",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038",</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>6841</v>
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>2875</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v>"6841",</v>
+        <f t="shared" si="0"/>
+        <v>"2875",</v>
       </c>
       <c r="F19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406","5411","5541","5707","6035","6098","6302","6752","6758","6762","6841",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875",</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>7004</v>
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>8425</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v>"7004",</v>
+        <f t="shared" si="0"/>
+        <v>"8425",</v>
       </c>
       <c r="F20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406","5411","5541","5707","6035","6098","6302","6752","6758","6762","6841","7004",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425",</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>7988</v>
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>2201</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v>"7988",</v>
+        <f t="shared" si="0"/>
+        <v>"2201",</v>
       </c>
       <c r="F21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406","5411","5541","5707","6035","6098","6302","6752","6758","6762","6841","7004","7988",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201",</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>8591</v>
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>6923</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v>"8591",</v>
+        <f t="shared" si="0"/>
+        <v>"6923",</v>
       </c>
       <c r="F22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406","5411","5541","5707","6035","6098","6302","6752","6758","6762","6841","7004","7988","8591",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923",</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>9104</v>
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>4043</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="1"/>
-        <v>"9104",</v>
+        <f t="shared" si="0"/>
+        <v>"4043",</v>
       </c>
       <c r="F23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406","5411","5541","5707","6035","6098","6302","6752","6758","6762","6841","7004","7988","8591","9104",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043",</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>9107</v>
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>3141</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v>"9107",</v>
+        <f t="shared" si="0"/>
+        <v>"3141",</v>
       </c>
       <c r="F24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406","5411","5541","5707","6035","6098","6302","6752","6758","6762","6841","7004","7988","8591","9104","9107",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141",</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>9432</v>
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>4516</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="1"/>
-        <v>"9432",</v>
+        <f t="shared" si="0"/>
+        <v>"4516",</v>
       </c>
       <c r="F25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406","5411","5541","5707","6035","6098","6302","6752","6758","6762","6841","7004","7988","8591","9104","9107","9432",</v>
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516",</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>9684</v>
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>7309</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="1"/>
-        <v>"9684",</v>
+        <f t="shared" si="0"/>
+        <v>"7309",</v>
       </c>
       <c r="F26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>6028</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>"6028",</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>4612</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>"4612",</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>6506</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>"6506",</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506",</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>3107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>"3107",</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>2503</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>"2503",</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503",</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>6754</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>"6754",</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>2412</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>"2412",</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412",</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>5233</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>"5233",</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>4812</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>"4812",</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>4686</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>"4686",</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686",</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>9069</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>"9069",</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069",</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>2531</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>"2531",</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531",</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>8279</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>"8279",</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279",</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>1766</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>"1766",</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766",</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>4578</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>"4578",</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578",</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>8630</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>"8630",</v>
+      </c>
+      <c r="F42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>9719</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>"9719",</v>
+      </c>
+      <c r="F43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>2801</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>"2801",</v>
+      </c>
+      <c r="F44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801",</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>8273</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>"8273",</v>
+      </c>
+      <c r="F45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273",</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>6383</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>"6383",</v>
+      </c>
+      <c r="F46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383",</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>5332</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>"5332",</v>
+      </c>
+      <c r="F47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332",</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>3880</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>"3880",</v>
+      </c>
+      <c r="F48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880",</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>9090</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>"9090",</v>
+      </c>
+      <c r="F49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090",</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>6134</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>"6134",</v>
+      </c>
+      <c r="F50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134",</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>6035</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>"6035",</v>
+      </c>
+      <c r="F51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035",</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>6268</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>"6268",</v>
+      </c>
+      <c r="F52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268",</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>9531</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>"9531",</v>
+      </c>
+      <c r="F53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531",</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>4042</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>"4042",</v>
+      </c>
+      <c r="F54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042",</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>5334</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>"5334",</v>
+      </c>
+      <c r="F55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334",</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>7701</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>"7701",</v>
+      </c>
+      <c r="F56" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701",</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>8113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>"8113",</v>
+      </c>
+      <c r="F57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113",</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>7947</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>"7947",</v>
+      </c>
+      <c r="F58" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947",</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>4348</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>"4348",</v>
+      </c>
+      <c r="F59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348",</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>1721</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>"1721",</v>
+      </c>
+      <c r="F60" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721",</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>8424</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>"8424",</v>
+      </c>
+      <c r="F61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424",</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>8355</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>"8355",</v>
+      </c>
+      <c r="F62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355",</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>2127</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>"2127",</v>
+      </c>
+      <c r="F63" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127",</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>6750</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>"6750",</v>
+      </c>
+      <c r="F64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750",</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65">
+        <v>8088</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>"8088",</v>
+      </c>
+      <c r="F65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088",</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66">
+        <v>7164</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" ref="E66:E70" si="2">C66&amp;B66&amp;C66&amp;D66</f>
+        <v>"7164",</v>
+      </c>
+      <c r="F66" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164",</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
+        <v>7203</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="str">
         <f t="shared" si="2"/>
-        <v>"2146","3288","4506","4519","4587","5202","5301","5401","5406","5411","5541","5707","6035","6098","6302","6752","6758","6762","6841","7004","7988","8591","9104","9107","9432","9684",</v>
+        <v>"7203",</v>
+      </c>
+      <c r="F67" s="2" t="str">
+        <f t="shared" ref="F67:F70" si="3">F66&amp;E67</f>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203",</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>4403</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="2"/>
+        <v>"4403",</v>
+      </c>
+      <c r="F68" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403",</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>6273</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="2"/>
+        <v>"6273",</v>
+      </c>
+      <c r="F69" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273",</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>6055</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="2"/>
+        <v>"6055",</v>
+      </c>
+      <c r="F70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055",</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71">
+        <v>7741</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" ref="E71:E124" si="4">C71&amp;B71&amp;C71&amp;D71</f>
+        <v>"7741",</v>
+      </c>
+      <c r="F71" s="2" t="str">
+        <f t="shared" ref="F71:F124" si="5">F70&amp;E71</f>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741",</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>1911</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="4"/>
+        <v>"1911",</v>
+      </c>
+      <c r="F72" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911",</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>7269</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="4"/>
+        <v>"7269",</v>
+      </c>
+      <c r="F73" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269",</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>3244</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="4"/>
+        <v>"3244",</v>
+      </c>
+      <c r="F74" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244",</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>7747</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="4"/>
+        <v>"7747",</v>
+      </c>
+      <c r="F75" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747",</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>4021</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="4"/>
+        <v>"4021",</v>
+      </c>
+      <c r="F76" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021",</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>4527</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="4"/>
+        <v>"4527",</v>
+      </c>
+      <c r="F77" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527",</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>4613</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="4"/>
+        <v>"4613",</v>
+      </c>
+      <c r="F78" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613",</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>4684</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="4"/>
+        <v>"4684",</v>
+      </c>
+      <c r="F79" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684",</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>3003</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="4"/>
+        <v>"3003",</v>
+      </c>
+      <c r="F80" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003",</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>2871</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="4"/>
+        <v>"2871",</v>
+      </c>
+      <c r="F81" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871",</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>7717</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="4"/>
+        <v>"7717",</v>
+      </c>
+      <c r="F82" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717",</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>8697</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="4"/>
+        <v>"8697",</v>
+      </c>
+      <c r="F83" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697",</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>7532</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="4"/>
+        <v>"7532",</v>
+      </c>
+      <c r="F84" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532",</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>6432</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="4"/>
+        <v>"6432",</v>
+      </c>
+      <c r="F85" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432",</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>5232</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="4"/>
+        <v>"5232",</v>
+      </c>
+      <c r="F86" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232",</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>4739</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="4"/>
+        <v>"4739",</v>
+      </c>
+      <c r="F87" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739",</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>9432</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="4"/>
+        <v>"9432",</v>
+      </c>
+      <c r="F88" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432",</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>3167</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="4"/>
+        <v>"3167",</v>
+      </c>
+      <c r="F89" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167",</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>8804</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="4"/>
+        <v>"8804",</v>
+      </c>
+      <c r="F90" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804",</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>9086</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="4"/>
+        <v>"9086",</v>
+      </c>
+      <c r="F91" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086",</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>9435</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="4"/>
+        <v>"9435",</v>
+      </c>
+      <c r="F92" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435",</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>8411</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="4"/>
+        <v>"8411",</v>
+      </c>
+      <c r="F93" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411",</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>6361</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="4"/>
+        <v>"6361",</v>
+      </c>
+      <c r="F94" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361",</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>3360</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="4"/>
+        <v>"3360",</v>
+      </c>
+      <c r="F95" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360",</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>9962</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="4"/>
+        <v>"9962",</v>
+      </c>
+      <c r="F96" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962",</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>9434</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="4"/>
+        <v>"9434",</v>
+      </c>
+      <c r="F97" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434",</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>8850</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="4"/>
+        <v>"8850",</v>
+      </c>
+      <c r="F98" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850",</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>2331</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="4"/>
+        <v>"2331",</v>
+      </c>
+      <c r="F99" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331",</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>4091</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="4"/>
+        <v>"4091",</v>
+      </c>
+      <c r="F100" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091",</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>6183</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="4"/>
+        <v>"6183",</v>
+      </c>
+      <c r="F101" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183",</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>8331</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="4"/>
+        <v>"8331",</v>
+      </c>
+      <c r="F102" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331",</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>3738</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="4"/>
+        <v>"3738",</v>
+      </c>
+      <c r="F103" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738",</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>4716</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="4"/>
+        <v>"4716",</v>
+      </c>
+      <c r="F104" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716",</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>8304</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="4"/>
+        <v>"8304",</v>
+      </c>
+      <c r="F105" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304",</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>3941</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="4"/>
+        <v>"3941",</v>
+      </c>
+      <c r="F106" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941",</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>1719</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="4"/>
+        <v>"1719",</v>
+      </c>
+      <c r="F107" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719",</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>9613</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="4"/>
+        <v>"9613",</v>
+      </c>
+      <c r="F108" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719","9613",</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>9433</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="4"/>
+        <v>"9433",</v>
+      </c>
+      <c r="F109" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719","9613","9433",</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>7649</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="4"/>
+        <v>"7649",</v>
+      </c>
+      <c r="F110" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719","9613","9433","7649",</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>3148</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="4"/>
+        <v>"3148",</v>
+      </c>
+      <c r="F111" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719","9613","9433","7649","3148",</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>8725</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="4"/>
+        <v>"8725",</v>
+      </c>
+      <c r="F112" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719","9613","9433","7649","3148","8725",</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>2175</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="4"/>
+        <v>"2175",</v>
+      </c>
+      <c r="F113" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719","9613","9433","7649","3148","8725","2175",</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>2229</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="4"/>
+        <v>"2229",</v>
+      </c>
+      <c r="F114" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719","9613","9433","7649","3148","8725","2175","2229",</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>6845</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="4"/>
+        <v>"6845",</v>
+      </c>
+      <c r="F115" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719","9613","9433","7649","3148","8725","2175","2229","6845",</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>2264</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="4"/>
+        <v>"2264",</v>
+      </c>
+      <c r="F116" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719","9613","9433","7649","3148","8725","2175","2229","6845","2264",</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>7988</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="4"/>
+        <v>"7988",</v>
+      </c>
+      <c r="F117" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719","9613","9433","7649","3148","8725","2175","2229","6845","2264","7988",</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>4061</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="4"/>
+        <v>"4061",</v>
+      </c>
+      <c r="F118" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719","9613","9433","7649","3148","8725","2175","2229","6845","2264","7988","4061",</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>4967</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="4"/>
+        <v>"4967",</v>
+      </c>
+      <c r="F119" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719","9613","9433","7649","3148","8725","2175","2229","6845","2264","7988","4061","4967",</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>7167</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="4"/>
+        <v>"7167",</v>
+      </c>
+      <c r="F120" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719","9613","9433","7649","3148","8725","2175","2229","6845","2264","7988","4061","4967","7167",</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>8830</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="4"/>
+        <v>"8830",</v>
+      </c>
+      <c r="F121" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719","9613","9433","7649","3148","8725","2175","2229","6845","2264","7988","4061","4967","7167","8830",</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>4208</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="4"/>
+        <v>"4208",</v>
+      </c>
+      <c r="F122" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719","9613","9433","7649","3148","8725","2175","2229","6845","2264","7988","4061","4967","7167","8830","4208",</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>8111</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="4"/>
+        <v>"8111",</v>
+      </c>
+      <c r="F123" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719","9613","9433","7649","3148","8725","2175","2229","6845","2264","7988","4061","4967","7167","8830","4208","8111",</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>6861</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="4"/>
+        <v>"6861",</v>
+      </c>
+      <c r="F124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"8035","6841","6857","6586","6981","9843","6954","5947","3349","6702","4528","9684","3116","5714","3064","9787","1963","3038","2875","8425","2201","6923","4043","3141","4516","7309","6028","4612","6506","3107","2503","6754","2412","5233","4812","4686","9069","2531","8279","1766","4578","8630","9719","2801","8273","6383","5332","3880","9090","6134","6035","6268","9531","4042","5334","7701","8113","7947","4348","1721","8424","8355","2127","6750","8088","7164","7203","4403","6273","6055","7741","1911","7269","3244","7747","4021","4527","4613","4684","3003","2871","7717","8697","7532","6432","5232","4739","9432","3167","8804","9086","9435","8411","6361","3360","9962","9434","8850","2331","4091","6183","8331","3738","4716","8304","3941","1719","9613","9433","7649","3148","8725","2175","2229","6845","2264","7988","4061","4967","7167","8830","4208","8111","6861",</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="str">
+        <f>RIGHT(A1,4)</f>
+        <v>1820</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="str">
+        <f>C1&amp;B1&amp;C1&amp;D1</f>
+        <v>"1820",</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <f>E1</f>
+        <v>"1820",</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B26" si="0">RIGHT(A2,4)</f>
+        <v>2181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E26" si="1">C2&amp;B2&amp;C2&amp;D2</f>
+        <v>"2181",</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>F1&amp;E2</f>
+        <v>"1820","2181",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>2331</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="1"/>
+        <v>"2331",</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" ref="F3:F26" si="2">F2&amp;E3</f>
+        <v>"1820","2181","2331",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>3092</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>"3092",</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>3436</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>"3436",</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>3659</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>"3659",</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>3765</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>"3765",</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>3769</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>"3769",</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>4507</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>"4507",</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>4684</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>"4684",</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>4689</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>"4689",</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>4716</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>"4716",</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>4751</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>"4751",</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>4755</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>"4755",</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>4768</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>"4768",</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>4921</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>"4921",</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>5214</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>"5214",</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>5802</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>"5802",</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>6134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>"6134",</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>6235</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>"6235",</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>6273</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>"6273",</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>6326</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>"6326",</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>6361</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>"6361",</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>6504</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>"6504",</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>6674</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>"6674",</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674",</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>6723</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>"6723",</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" ref="B27:B70" si="3">RIGHT(A27,4)</f>
+        <v>6727</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" ref="E27:E70" si="4">C27&amp;B27&amp;C27&amp;D27</f>
+        <v>"6727",</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" ref="F27:F70" si="5">F26&amp;E27</f>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="3"/>
+        <v>6728</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="4"/>
+        <v>"6728",</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="3"/>
+        <v>6753</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="4"/>
+        <v>"6753",</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753",</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="3"/>
+        <v>6762</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="4"/>
+        <v>"6762",</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="3"/>
+        <v>6845</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="4"/>
+        <v>"6845",</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845",</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="3"/>
+        <v>6869</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="4"/>
+        <v>"6869",</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="3"/>
+        <v>6902</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="4"/>
+        <v>"6902",</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902",</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="3"/>
+        <v>6920</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="4"/>
+        <v>"6920",</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="3"/>
+        <v>6976</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="4"/>
+        <v>"6976",</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="3"/>
+        <v>7259</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="4"/>
+        <v>"7259",</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259",</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="3"/>
+        <v>7276</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="4"/>
+        <v>"7276",</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276",</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="3"/>
+        <v>7309</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="4"/>
+        <v>"7309",</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309",</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="3"/>
+        <v>7735</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="4"/>
+        <v>"7735",</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735",</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="3"/>
+        <v>7741</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="4"/>
+        <v>"7741",</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741",</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="3"/>
+        <v>7747</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="4"/>
+        <v>"7747",</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747",</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="3"/>
+        <v>7947</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="4"/>
+        <v>"7947",</v>
+      </c>
+      <c r="F42" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="3"/>
+        <v>7974</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="4"/>
+        <v>"7974",</v>
+      </c>
+      <c r="F43" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="3"/>
+        <v>8031</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="4"/>
+        <v>"8031",</v>
+      </c>
+      <c r="F44" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031",</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="3"/>
+        <v>8035</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="4"/>
+        <v>"8035",</v>
+      </c>
+      <c r="F45" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035",</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="3"/>
+        <v>8113</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="4"/>
+        <v>"8113",</v>
+      </c>
+      <c r="F46" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113",</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="3"/>
+        <v>8919</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="4"/>
+        <v>"8919",</v>
+      </c>
+      <c r="F47" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919",</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="3"/>
+        <v>6976</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="4"/>
+        <v>"6976",</v>
+      </c>
+      <c r="F48" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976",</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="3"/>
+        <v>6988</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="4"/>
+        <v>"6988",</v>
+      </c>
+      <c r="F49" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988",</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="3"/>
+        <v>7201</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="4"/>
+        <v>"7201",</v>
+      </c>
+      <c r="F50" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201",</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="3"/>
+        <v>7202</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="4"/>
+        <v>"7202",</v>
+      </c>
+      <c r="F51" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202",</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="3"/>
+        <v>7211</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="4"/>
+        <v>"7211",</v>
+      </c>
+      <c r="F52" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211",</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="3"/>
+        <v>7309</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="4"/>
+        <v>"7309",</v>
+      </c>
+      <c r="F53" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309",</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="3"/>
+        <v>7729</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="4"/>
+        <v>"7729",</v>
+      </c>
+      <c r="F54" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729",</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="3"/>
+        <v>7735</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="4"/>
+        <v>"7735",</v>
+      </c>
+      <c r="F55" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735",</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="3"/>
+        <v>7832</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="4"/>
+        <v>"7832",</v>
+      </c>
+      <c r="F56" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832",</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="3"/>
+        <v>7911</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="4"/>
+        <v>"7911",</v>
+      </c>
+      <c r="F57" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911",</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="3"/>
+        <v>8002</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="4"/>
+        <v>"8002",</v>
+      </c>
+      <c r="F58" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002",</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="3"/>
+        <v>8015</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="4"/>
+        <v>"8015",</v>
+      </c>
+      <c r="F59" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015",</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="3"/>
+        <v>8035</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="4"/>
+        <v>"8035",</v>
+      </c>
+      <c r="F60" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035",</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="3"/>
+        <v>8056</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="4"/>
+        <v>"8056",</v>
+      </c>
+      <c r="F61" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056",</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="3"/>
+        <v>8111</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="4"/>
+        <v>"8111",</v>
+      </c>
+      <c r="F62" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111",</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="3"/>
+        <v>8279</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="4"/>
+        <v>"8279",</v>
+      </c>
+      <c r="F63" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111","8279",</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="3"/>
+        <v>8591</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="4"/>
+        <v>"8591",</v>
+      </c>
+      <c r="F64" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111","8279","8591",</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="3"/>
+        <v>9418</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="4"/>
+        <v>"9418",</v>
+      </c>
+      <c r="F65" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111","8279","8591","9418",</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="3"/>
+        <v>9519</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="4"/>
+        <v>"9519",</v>
+      </c>
+      <c r="F66" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111","8279","8591","9418","9519",</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="3"/>
+        <v>9613</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="4"/>
+        <v>"9613",</v>
+      </c>
+      <c r="F67" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111","8279","8591","9418","9519","9613",</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="3"/>
+        <v>9684</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="4"/>
+        <v>"9684",</v>
+      </c>
+      <c r="F68" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111","8279","8591","9418","9519","9613","9684",</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="3"/>
+        <v>9744</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="4"/>
+        <v>"9744",</v>
+      </c>
+      <c r="F69" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111","8279","8591","9418","9519","9613","9684","9744",</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="3"/>
+        <v>9787</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="4"/>
+        <v>"9787",</v>
+      </c>
+      <c r="F70" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111","8279","8591","9418","9519","9613","9684","9744","9787",</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/7. 500只股票池/股票池整理.xlsx
+++ b/7. 500只股票池/股票池整理.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="165">
   <si>
     <t>J2146</t>
   </si>
@@ -244,21 +244,6 @@
     <t>J1820</t>
   </si>
   <si>
-    <t>J3092</t>
-  </si>
-  <si>
-    <t>J3769</t>
-  </si>
-  <si>
-    <t>J4716</t>
-  </si>
-  <si>
-    <t>J4751</t>
-  </si>
-  <si>
-    <t>J4755</t>
-  </si>
-  <si>
     <t>J6273</t>
   </si>
   <si>
@@ -271,9 +256,6 @@
     <t>J6869</t>
   </si>
   <si>
-    <t>J7741</t>
-  </si>
-  <si>
     <t>J8113</t>
   </si>
   <si>
@@ -286,9 +268,6 @@
     <t>J8919</t>
   </si>
   <si>
-    <t>J2331</t>
-  </si>
-  <si>
     <t>J4507</t>
   </si>
   <si>
@@ -298,43 +277,247 @@
     <t>J4768</t>
   </si>
   <si>
-    <t>J4921</t>
-  </si>
-  <si>
-    <t>J5802</t>
-  </si>
-  <si>
-    <t>J6134</t>
-  </si>
-  <si>
     <t>J6235</t>
   </si>
   <si>
     <t>J6326</t>
   </si>
   <si>
-    <t>J6723</t>
-  </si>
-  <si>
-    <t>J6753</t>
+    <t>J7974</t>
+  </si>
+  <si>
+    <t>J1821</t>
+  </si>
+  <si>
+    <t>J2914</t>
+  </si>
+  <si>
+    <t>J3254</t>
+  </si>
+  <si>
+    <t>J3941</t>
+  </si>
+  <si>
+    <t>J4528</t>
+  </si>
+  <si>
+    <t>J5232</t>
+  </si>
+  <si>
+    <t>J5393</t>
+  </si>
+  <si>
+    <t>J5631</t>
+  </si>
+  <si>
+    <t>J6055</t>
+  </si>
+  <si>
+    <t>J6178</t>
+  </si>
+  <si>
+    <t>J6367</t>
+  </si>
+  <si>
+    <t>J6506</t>
+  </si>
+  <si>
+    <t>J6724</t>
+  </si>
+  <si>
+    <t>J6971</t>
+  </si>
+  <si>
+    <t>J7701</t>
+  </si>
+  <si>
+    <t>J7731</t>
+  </si>
+  <si>
+    <t>J7846</t>
+  </si>
+  <si>
+    <t>J8001</t>
+  </si>
+  <si>
+    <t>J8058</t>
+  </si>
+  <si>
+    <t>J8303</t>
+  </si>
+  <si>
+    <t>J8309</t>
+  </si>
+  <si>
+    <t>J8424</t>
+  </si>
+  <si>
+    <t>J8473</t>
+  </si>
+  <si>
+    <t>J8804</t>
+  </si>
+  <si>
+    <t>J9062</t>
+  </si>
+  <si>
+    <t>J9064</t>
+  </si>
+  <si>
+    <t>J9086</t>
+  </si>
+  <si>
+    <t>J9101</t>
+  </si>
+  <si>
+    <t>J9104</t>
+  </si>
+  <si>
+    <t>J9107</t>
+  </si>
+  <si>
+    <t>J9375</t>
+  </si>
+  <si>
+    <t>J9502</t>
+  </si>
+  <si>
+    <t>J9503</t>
+  </si>
+  <si>
+    <t>J9504</t>
+  </si>
+  <si>
+    <t>J9506</t>
+  </si>
+  <si>
+    <t>J9509</t>
+  </si>
+  <si>
+    <t>J9513</t>
+  </si>
+  <si>
+    <t>J9531</t>
+  </si>
+  <si>
+    <t>J9532</t>
+  </si>
+  <si>
+    <t>J9719</t>
+  </si>
+  <si>
+    <t>J9810</t>
+  </si>
+  <si>
+    <t>J1605</t>
+  </si>
+  <si>
+    <t>J1928</t>
+  </si>
+  <si>
+    <t>J2267</t>
+  </si>
+  <si>
+    <t>J2282</t>
+  </si>
+  <si>
+    <t>J2433</t>
+  </si>
+  <si>
+    <t>J2702</t>
+  </si>
+  <si>
+    <t>J2768</t>
+  </si>
+  <si>
+    <t>J2801</t>
+  </si>
+  <si>
+    <t>J2875</t>
+  </si>
+  <si>
+    <t>J3291</t>
+  </si>
+  <si>
+    <t>J4061</t>
+  </si>
+  <si>
+    <t>J4527</t>
+  </si>
+  <si>
+    <t>J4543</t>
+  </si>
+  <si>
+    <t>J4732</t>
+  </si>
+  <si>
+    <t>J4902</t>
+  </si>
+  <si>
+    <t>J5108</t>
+  </si>
+  <si>
+    <t>J6448</t>
+  </si>
+  <si>
+    <t>J6472</t>
+  </si>
+  <si>
+    <t>J6594</t>
+  </si>
+  <si>
+    <t>J6645</t>
+  </si>
+  <si>
+    <t>J6861</t>
+  </si>
+  <si>
+    <t>J6954</t>
+  </si>
+  <si>
+    <t>J6981</t>
+  </si>
+  <si>
+    <t>J7148</t>
   </si>
   <si>
     <t>J7259</t>
   </si>
   <si>
-    <t>J7276</t>
-  </si>
-  <si>
-    <t>J7747</t>
-  </si>
-  <si>
-    <t>J7947</t>
-  </si>
-  <si>
-    <t>J7974</t>
+    <t>J7459</t>
+  </si>
+  <si>
+    <t>J7550</t>
+  </si>
+  <si>
+    <t>J7733</t>
+  </si>
+  <si>
+    <t>J7751</t>
+  </si>
+  <si>
+    <t>J7912</t>
   </si>
   <si>
     <t>J8031</t>
+  </si>
+  <si>
+    <t>J8053</t>
+  </si>
+  <si>
+    <t>J8593</t>
+  </si>
+  <si>
+    <t>J8697</t>
+  </si>
+  <si>
+    <t>J8766</t>
+  </si>
+  <si>
+    <t>J9508</t>
+  </si>
+  <si>
+    <t>J9735</t>
   </si>
 </sst>
 </file>
@@ -3286,10 +3469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3299,11 +3482,11 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="B1" t="str">
         <f>RIGHT(A1,4)</f>
-        <v>1820</v>
+        <v>1605</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -3313,20 +3496,20 @@
       </c>
       <c r="E1" t="str">
         <f>C1&amp;B1&amp;C1&amp;D1</f>
-        <v>"1820",</v>
+        <v>"1605",</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>E1</f>
-        <v>"1820",</v>
+        <v>"1605",</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B26" si="0">RIGHT(A2,4)</f>
-        <v>2181</v>
+        <v>1820</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -3336,11 +3519,11 @@
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E26" si="1">C2&amp;B2&amp;C2&amp;D2</f>
-        <v>"2181",</v>
+        <v>"1820",</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>F1&amp;E2</f>
-        <v>"1820","2181",</v>
+        <v>"1605","1820",</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3349,7 +3532,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>2331</v>
+        <v>1821</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -3359,20 +3542,20 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" si="1"/>
-        <v>"2331",</v>
+        <v>"1821",</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ref="F3:F26" si="2">F2&amp;E3</f>
-        <v>"1820","2181","2331",</v>
+        <v>"1605","1820","1821",</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>3092</v>
+        <v>1928</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3382,20 +3565,20 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
-        <v>"3092",</v>
+        <v>"1928",</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092",</v>
+        <v>"1605","1820","1821","1928",</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>3436</v>
+        <v>2267</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -3405,20 +3588,20 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
-        <v>"3436",</v>
+        <v>"2267",</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436",</v>
+        <v>"1605","1820","1821","1928","2267",</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>3659</v>
+        <v>2282</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -3428,20 +3611,20 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
-        <v>"3659",</v>
+        <v>"2282",</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659",</v>
+        <v>"1605","1820","1821","1928","2267","2282",</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>3765</v>
+        <v>2433</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -3451,20 +3634,20 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
-        <v>"3765",</v>
+        <v>"2433",</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433",</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>3769</v>
+        <v>2702</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -3474,20 +3657,20 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
-        <v>"3769",</v>
+        <v>"2702",</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702",</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>4507</v>
+        <v>2768</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -3497,20 +3680,20 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
-        <v>"4507",</v>
+        <v>"2768",</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768",</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>4684</v>
+        <v>2801</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -3520,20 +3703,20 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
-        <v>"4684",</v>
+        <v>"2801",</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801",</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>4689</v>
+        <v>2875</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -3543,20 +3726,20 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
-        <v>"4689",</v>
+        <v>"2875",</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875",</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>4716</v>
+        <v>2914</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -3566,20 +3749,20 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
-        <v>"4716",</v>
+        <v>"2914",</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914",</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>4751</v>
+        <v>3038</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -3589,20 +3772,20 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
-        <v>"4751",</v>
+        <v>"3038",</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038",</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>4755</v>
+        <v>3254</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -3612,20 +3795,20 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
-        <v>"4755",</v>
+        <v>"3254",</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254",</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>4768</v>
+        <v>3291</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -3635,20 +3818,20 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
-        <v>"4768",</v>
+        <v>"3291",</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291",</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>4921</v>
+        <v>3626</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -3658,20 +3841,20 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
-        <v>"4921",</v>
+        <v>"3626",</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626",</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>5214</v>
+        <v>3941</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -3681,20 +3864,20 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
-        <v>"5214",</v>
+        <v>"3941",</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941",</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>5802</v>
+        <v>4061</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -3704,20 +3887,20 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
-        <v>"5802",</v>
+        <v>"4061",</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061",</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>6134</v>
+        <v>4204</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -3727,20 +3910,20 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
-        <v>"6134",</v>
+        <v>"4204",</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204",</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>6235</v>
+        <v>4307</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -3750,20 +3933,20 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
-        <v>"6235",</v>
+        <v>"4307",</v>
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307",</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>6273</v>
+        <v>4507</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -3773,20 +3956,20 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
-        <v>"6273",</v>
+        <v>"4507",</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507",</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>6326</v>
+        <v>4527</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -3796,20 +3979,20 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
-        <v>"6326",</v>
+        <v>"4527",</v>
       </c>
       <c r="F22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527",</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>6361</v>
+        <v>4528</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -3819,20 +4002,20 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
-        <v>"6361",</v>
+        <v>"4528",</v>
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528",</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>6504</v>
+        <v>4543</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -3842,20 +4025,20 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
-        <v>"6504",</v>
+        <v>"4543",</v>
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543",</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>6674</v>
+        <v>4684</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -3865,20 +4048,20 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
-        <v>"6674",</v>
+        <v>"4684",</v>
       </c>
       <c r="F25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684",</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>6723</v>
+        <v>4732</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -3888,20 +4071,20 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="1"/>
-        <v>"6723",</v>
+        <v>"4732",</v>
       </c>
       <c r="F26" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732",</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" ref="B27:B70" si="3">RIGHT(A27,4)</f>
-        <v>6727</v>
+        <v>4768</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -3911,20 +4094,20 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" ref="E27:E70" si="4">C27&amp;B27&amp;C27&amp;D27</f>
-        <v>"6727",</v>
+        <v>"4768",</v>
       </c>
       <c r="F27" s="2" t="str">
         <f t="shared" ref="F27:F70" si="5">F26&amp;E27</f>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768",</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="3"/>
-        <v>6728</v>
+        <v>4902</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -3934,20 +4117,20 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="4"/>
-        <v>"6728",</v>
+        <v>"4902",</v>
       </c>
       <c r="F28" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902",</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="3"/>
-        <v>6753</v>
+        <v>5108</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -3957,20 +4140,20 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="4"/>
-        <v>"6753",</v>
+        <v>"5108",</v>
       </c>
       <c r="F29" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108",</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="3"/>
-        <v>6762</v>
+        <v>5214</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -3980,20 +4163,20 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="4"/>
-        <v>"6762",</v>
+        <v>"5214",</v>
       </c>
       <c r="F30" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214",</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="3"/>
-        <v>6845</v>
+        <v>5232</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -4003,20 +4186,20 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="4"/>
-        <v>"6845",</v>
+        <v>"5232",</v>
       </c>
       <c r="F31" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232",</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="3"/>
-        <v>6869</v>
+        <v>5334</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -4026,20 +4209,20 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="4"/>
-        <v>"6869",</v>
+        <v>"5334",</v>
       </c>
       <c r="F32" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334",</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="3"/>
-        <v>6902</v>
+        <v>5393</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -4049,20 +4232,20 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="4"/>
-        <v>"6902",</v>
+        <v>"5393",</v>
       </c>
       <c r="F33" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393",</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="3"/>
-        <v>6920</v>
+        <v>5631</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -4072,20 +4255,20 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="4"/>
-        <v>"6920",</v>
+        <v>"5631",</v>
       </c>
       <c r="F34" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631",</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="3"/>
-        <v>6976</v>
+        <v>6055</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -4095,20 +4278,20 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="4"/>
-        <v>"6976",</v>
+        <v>"6055",</v>
       </c>
       <c r="F35" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055",</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="3"/>
-        <v>7259</v>
+        <v>6146</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -4118,20 +4301,20 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" si="4"/>
-        <v>"7259",</v>
+        <v>"6146",</v>
       </c>
       <c r="F36" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146",</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="3"/>
-        <v>7276</v>
+        <v>6178</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -4141,20 +4324,20 @@
       </c>
       <c r="E37" t="str">
         <f t="shared" si="4"/>
-        <v>"7276",</v>
+        <v>"6178",</v>
       </c>
       <c r="F37" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178",</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="3"/>
-        <v>7309</v>
+        <v>6235</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -4164,20 +4347,20 @@
       </c>
       <c r="E38" t="str">
         <f t="shared" si="4"/>
-        <v>"7309",</v>
+        <v>"6235",</v>
       </c>
       <c r="F38" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235",</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="3"/>
-        <v>7735</v>
+        <v>6273</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -4187,20 +4370,20 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" si="4"/>
-        <v>"7735",</v>
+        <v>"6273",</v>
       </c>
       <c r="F39" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273",</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="3"/>
-        <v>7741</v>
+        <v>6326</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -4210,20 +4393,20 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" si="4"/>
-        <v>"7741",</v>
+        <v>"6326",</v>
       </c>
       <c r="F40" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326",</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="3"/>
-        <v>7747</v>
+        <v>6361</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -4233,20 +4416,20 @@
       </c>
       <c r="E41" t="str">
         <f t="shared" si="4"/>
-        <v>"7747",</v>
+        <v>"6361",</v>
       </c>
       <c r="F41" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361",</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="3"/>
-        <v>7947</v>
+        <v>6367</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
@@ -4256,20 +4439,20 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" si="4"/>
-        <v>"7947",</v>
+        <v>"6367",</v>
       </c>
       <c r="F42" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367",</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="3"/>
-        <v>7974</v>
+        <v>6448</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -4279,20 +4462,20 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" si="4"/>
-        <v>"7974",</v>
+        <v>"6448",</v>
       </c>
       <c r="F43" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448",</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="3"/>
-        <v>8031</v>
+        <v>6472</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -4302,20 +4485,20 @@
       </c>
       <c r="E44" t="str">
         <f t="shared" si="4"/>
-        <v>"8031",</v>
+        <v>"6472",</v>
       </c>
       <c r="F44" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472",</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="3"/>
-        <v>8035</v>
+        <v>6479</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
@@ -4325,20 +4508,20 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" si="4"/>
-        <v>"8035",</v>
+        <v>"6479",</v>
       </c>
       <c r="F45" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479",</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="3"/>
-        <v>8113</v>
+        <v>6504</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
@@ -4348,20 +4531,20 @@
       </c>
       <c r="E46" t="str">
         <f t="shared" si="4"/>
-        <v>"8113",</v>
+        <v>"6504",</v>
       </c>
       <c r="F46" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504",</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="3"/>
-        <v>8919</v>
+        <v>6506</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
@@ -4371,20 +4554,20 @@
       </c>
       <c r="E47" t="str">
         <f t="shared" si="4"/>
-        <v>"8919",</v>
+        <v>"6506",</v>
       </c>
       <c r="F47" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506",</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>51</v>
+      <c r="A48" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="3"/>
-        <v>6976</v>
+        <v>6594</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
@@ -4394,20 +4577,20 @@
       </c>
       <c r="E48" t="str">
         <f t="shared" si="4"/>
-        <v>"6976",</v>
+        <v>"6594",</v>
       </c>
       <c r="F48" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594",</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>52</v>
+      <c r="A49" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="3"/>
-        <v>6988</v>
+        <v>6645</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
@@ -4417,20 +4600,20 @@
       </c>
       <c r="E49" t="str">
         <f t="shared" si="4"/>
-        <v>"6988",</v>
+        <v>"6645",</v>
       </c>
       <c r="F49" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645",</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>53</v>
+      <c r="A50" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="3"/>
-        <v>7201</v>
+        <v>6674</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
@@ -4440,20 +4623,20 @@
       </c>
       <c r="E50" t="str">
         <f t="shared" si="4"/>
-        <v>"7201",</v>
+        <v>"6674",</v>
       </c>
       <c r="F50" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674",</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>54</v>
+      <c r="A51" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="3"/>
-        <v>7202</v>
+        <v>6724</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
@@ -4463,20 +4646,20 @@
       </c>
       <c r="E51" t="str">
         <f t="shared" si="4"/>
-        <v>"7202",</v>
+        <v>"6724",</v>
       </c>
       <c r="F51" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724",</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>55</v>
+      <c r="A52" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="3"/>
-        <v>7211</v>
+        <v>6727</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
@@ -4486,20 +4669,20 @@
       </c>
       <c r="E52" t="str">
         <f t="shared" si="4"/>
-        <v>"7211",</v>
+        <v>"6727",</v>
       </c>
       <c r="F52" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727",</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>56</v>
+      <c r="A53" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="3"/>
-        <v>7309</v>
+        <v>6728</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -4509,20 +4692,20 @@
       </c>
       <c r="E53" t="str">
         <f t="shared" si="4"/>
-        <v>"7309",</v>
+        <v>"6728",</v>
       </c>
       <c r="F53" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728",</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>57</v>
+      <c r="A54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="3"/>
-        <v>7729</v>
+        <v>6758</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -4532,20 +4715,20 @@
       </c>
       <c r="E54" t="str">
         <f t="shared" si="4"/>
-        <v>"7729",</v>
+        <v>"6758",</v>
       </c>
       <c r="F54" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758",</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>58</v>
+      <c r="A55" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="3"/>
-        <v>7735</v>
+        <v>6845</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
@@ -4555,20 +4738,20 @@
       </c>
       <c r="E55" t="str">
         <f t="shared" si="4"/>
-        <v>"7735",</v>
+        <v>"6845",</v>
       </c>
       <c r="F55" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845",</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>59</v>
+      <c r="A56" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="3"/>
-        <v>7832</v>
+        <v>6857</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
@@ -4578,20 +4761,20 @@
       </c>
       <c r="E56" t="str">
         <f t="shared" si="4"/>
-        <v>"7832",</v>
+        <v>"6857",</v>
       </c>
       <c r="F56" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857",</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>60</v>
+      <c r="A57" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="3"/>
-        <v>7911</v>
+        <v>6861</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -4601,20 +4784,20 @@
       </c>
       <c r="E57" t="str">
         <f t="shared" si="4"/>
-        <v>"7911",</v>
+        <v>"6861",</v>
       </c>
       <c r="F57" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861",</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>61</v>
+      <c r="A58" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="3"/>
-        <v>8002</v>
+        <v>6869</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -4624,20 +4807,20 @@
       </c>
       <c r="E58" t="str">
         <f t="shared" si="4"/>
-        <v>"8002",</v>
+        <v>"6869",</v>
       </c>
       <c r="F58" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869",</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>62</v>
+      <c r="A59" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="3"/>
-        <v>8015</v>
+        <v>6902</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -4647,20 +4830,20 @@
       </c>
       <c r="E59" t="str">
         <f t="shared" si="4"/>
-        <v>"8015",</v>
+        <v>"6902",</v>
       </c>
       <c r="F59" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902",</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>63</v>
+      <c r="A60" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="3"/>
-        <v>8035</v>
+        <v>6920</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -4670,20 +4853,20 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" si="4"/>
-        <v>"8035",</v>
+        <v>"6920",</v>
       </c>
       <c r="F60" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920",</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>64</v>
+      <c r="A61" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="3"/>
-        <v>8056</v>
+        <v>6954</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -4693,20 +4876,20 @@
       </c>
       <c r="E61" t="str">
         <f t="shared" si="4"/>
-        <v>"8056",</v>
+        <v>"6954",</v>
       </c>
       <c r="F61" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954",</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>65</v>
+      <c r="A62" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="3"/>
-        <v>8111</v>
+        <v>6965</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
@@ -4716,20 +4899,20 @@
       </c>
       <c r="E62" t="str">
         <f t="shared" si="4"/>
-        <v>"8111",</v>
+        <v>"6965",</v>
       </c>
       <c r="F62" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965",</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>66</v>
+      <c r="A63" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="3"/>
-        <v>8279</v>
+        <v>6971</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -4739,20 +4922,20 @@
       </c>
       <c r="E63" t="str">
         <f t="shared" si="4"/>
-        <v>"8279",</v>
+        <v>"6971",</v>
       </c>
       <c r="F63" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111","8279",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971",</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>7</v>
+      <c r="A64" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="3"/>
-        <v>8591</v>
+        <v>6976</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
@@ -4762,20 +4945,20 @@
       </c>
       <c r="E64" t="str">
         <f t="shared" si="4"/>
-        <v>"8591",</v>
+        <v>"6976",</v>
       </c>
       <c r="F64" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111","8279","8591",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976",</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>67</v>
+      <c r="A65" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="3"/>
-        <v>9418</v>
+        <v>6981</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
@@ -4785,20 +4968,20 @@
       </c>
       <c r="E65" t="str">
         <f t="shared" si="4"/>
-        <v>"9418",</v>
+        <v>"6981",</v>
       </c>
       <c r="F65" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111","8279","8591","9418",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981",</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>68</v>
+      <c r="A66" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="3"/>
-        <v>9519</v>
+        <v>6988</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -4808,20 +4991,20 @@
       </c>
       <c r="E66" t="str">
         <f t="shared" si="4"/>
-        <v>"9519",</v>
+        <v>"6988",</v>
       </c>
       <c r="F66" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111","8279","8591","9418","9519",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988",</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>69</v>
+      <c r="A67" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="3"/>
-        <v>9613</v>
+        <v>7148</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
@@ -4831,20 +5014,20 @@
       </c>
       <c r="E67" t="str">
         <f t="shared" si="4"/>
-        <v>"9613",</v>
+        <v>"7148",</v>
       </c>
       <c r="F67" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111","8279","8591","9418","9519","9613",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148",</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>8</v>
+      <c r="A68" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="3"/>
-        <v>9684</v>
+        <v>7259</v>
       </c>
       <c r="C68" t="s">
         <v>9</v>
@@ -4854,20 +5037,20 @@
       </c>
       <c r="E68" t="str">
         <f t="shared" si="4"/>
-        <v>"9684",</v>
+        <v>"7259",</v>
       </c>
       <c r="F68" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111","8279","8591","9418","9519","9613","9684",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259",</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>70</v>
+      <c r="A69" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="3"/>
-        <v>9744</v>
+        <v>7459</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
@@ -4877,20 +5060,20 @@
       </c>
       <c r="E69" t="str">
         <f t="shared" si="4"/>
-        <v>"9744",</v>
+        <v>"7459",</v>
       </c>
       <c r="F69" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111","8279","8591","9418","9519","9613","9684","9744",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459",</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>71</v>
+      <c r="A70" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="3"/>
-        <v>9787</v>
+        <v>7550</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
@@ -4900,15 +5083,1024 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" si="4"/>
-        <v>"9787",</v>
+        <v>"7550",</v>
       </c>
       <c r="F70" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1820","2181","2331","3092","3436","3659","3765","3769","4507","4684","4689","4716","4751","4755","4768","4921","5214","5802","6134","6235","6273","6326","6361","6504","6674","6723","6727","6728","6753","6762","6845","6869","6902","6920","6976","7259","7276","7309","7735","7741","7747","7947","7974","8031","8035","8113","8919","6976","6988","7201","7202","7211","7309","7729","7735","7832","7911","8002","8015","8035","8056","8111","8279","8591","9418","9519","9613","9684","9744","9787",</v>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550",</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
+      <c r="A71" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" ref="B71:B93" si="6">RIGHT(A71,4)</f>
+        <v>7701</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" ref="E71:E93" si="7">C71&amp;B71&amp;C71&amp;D71</f>
+        <v>"7701",</v>
+      </c>
+      <c r="F71" s="2" t="str">
+        <f t="shared" ref="F71:F93" si="8">F70&amp;E71</f>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701",</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="6"/>
+        <v>7731</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="7"/>
+        <v>"7731",</v>
+      </c>
+      <c r="F72" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731",</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="6"/>
+        <v>7733</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="7"/>
+        <v>"7733",</v>
+      </c>
+      <c r="F73" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733",</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="6"/>
+        <v>7735</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="7"/>
+        <v>"7735",</v>
+      </c>
+      <c r="F74" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735",</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="6"/>
+        <v>7751</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="7"/>
+        <v>"7751",</v>
+      </c>
+      <c r="F75" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751",</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="6"/>
+        <v>7846</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="7"/>
+        <v>"7846",</v>
+      </c>
+      <c r="F76" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846",</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="6"/>
+        <v>7911</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="7"/>
+        <v>"7911",</v>
+      </c>
+      <c r="F77" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911",</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="6"/>
+        <v>7912</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="7"/>
+        <v>"7912",</v>
+      </c>
+      <c r="F78" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912",</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="6"/>
+        <v>7974</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="7"/>
+        <v>"7974",</v>
+      </c>
+      <c r="F79" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974",</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="6"/>
+        <v>8001</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="7"/>
+        <v>"8001",</v>
+      </c>
+      <c r="F80" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001",</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="6"/>
+        <v>8002</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="7"/>
+        <v>"8002",</v>
+      </c>
+      <c r="F81" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002",</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="6"/>
+        <v>8031</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="7"/>
+        <v>"8031",</v>
+      </c>
+      <c r="F82" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031",</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="6"/>
+        <v>8035</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="7"/>
+        <v>"8035",</v>
+      </c>
+      <c r="F83" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035",</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="6"/>
+        <v>8053</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="7"/>
+        <v>"8053",</v>
+      </c>
+      <c r="F84" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053",</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="6"/>
+        <v>8058</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="7"/>
+        <v>"8058",</v>
+      </c>
+      <c r="F85" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058",</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="6"/>
+        <v>8113</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="7"/>
+        <v>"8113",</v>
+      </c>
+      <c r="F86" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113",</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="6"/>
+        <v>8303</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="7"/>
+        <v>"8303",</v>
+      </c>
+      <c r="F87" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303",</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="6"/>
+        <v>8309</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="7"/>
+        <v>"8309",</v>
+      </c>
+      <c r="F88" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309",</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="6"/>
+        <v>8424</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="7"/>
+        <v>"8424",</v>
+      </c>
+      <c r="F89" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424",</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="6"/>
+        <v>8473</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="7"/>
+        <v>"8473",</v>
+      </c>
+      <c r="F90" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473",</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="6"/>
+        <v>8593</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="7"/>
+        <v>"8593",</v>
+      </c>
+      <c r="F91" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593",</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="6"/>
+        <v>8697</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="7"/>
+        <v>"8697",</v>
+      </c>
+      <c r="F92" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697",</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="6"/>
+        <v>8766</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="7"/>
+        <v>"8766",</v>
+      </c>
+      <c r="F93" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766",</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" ref="B94:B114" si="9">RIGHT(A94,4)</f>
+        <v>8804</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" ref="E94:E114" si="10">C94&amp;B94&amp;C94&amp;D94</f>
+        <v>"8804",</v>
+      </c>
+      <c r="F94" s="2" t="str">
+        <f t="shared" ref="F94:F114" si="11">F93&amp;E94</f>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804",</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="9"/>
+        <v>8919</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="10"/>
+        <v>"8919",</v>
+      </c>
+      <c r="F95" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919",</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="9"/>
+        <v>9062</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="10"/>
+        <v>"9062",</v>
+      </c>
+      <c r="F96" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062",</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="9"/>
+        <v>9064</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="10"/>
+        <v>"9064",</v>
+      </c>
+      <c r="F97" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064",</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="9"/>
+        <v>9086</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="10"/>
+        <v>"9086",</v>
+      </c>
+      <c r="F98" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086",</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="9"/>
+        <v>9101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="10"/>
+        <v>"9101",</v>
+      </c>
+      <c r="F99" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101",</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="9"/>
+        <v>9104</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="10"/>
+        <v>"9104",</v>
+      </c>
+      <c r="F100" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104",</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="9"/>
+        <v>9107</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="10"/>
+        <v>"9107",</v>
+      </c>
+      <c r="F101" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107",</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="9"/>
+        <v>9375</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="10"/>
+        <v>"9375",</v>
+      </c>
+      <c r="F102" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375",</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="9"/>
+        <v>9502</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="10"/>
+        <v>"9502",</v>
+      </c>
+      <c r="F103" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502",</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="9"/>
+        <v>9503</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="10"/>
+        <v>"9503",</v>
+      </c>
+      <c r="F104" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503",</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="9"/>
+        <v>9504</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="10"/>
+        <v>"9504",</v>
+      </c>
+      <c r="F105" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504",</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="9"/>
+        <v>9506</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="10"/>
+        <v>"9506",</v>
+      </c>
+      <c r="F106" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506",</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="9"/>
+        <v>9508</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="10"/>
+        <v>"9508",</v>
+      </c>
+      <c r="F107" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508",</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="9"/>
+        <v>9509</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="10"/>
+        <v>"9509",</v>
+      </c>
+      <c r="F108" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509",</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="9"/>
+        <v>9513</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="10"/>
+        <v>"9513",</v>
+      </c>
+      <c r="F109" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513",</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="9"/>
+        <v>9531</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="10"/>
+        <v>"9531",</v>
+      </c>
+      <c r="F110" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531",</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="9"/>
+        <v>9532</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="10"/>
+        <v>"9532",</v>
+      </c>
+      <c r="F111" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532",</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="9"/>
+        <v>9719</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="10"/>
+        <v>"9719",</v>
+      </c>
+      <c r="F112" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532","9719",</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="9"/>
+        <v>9735</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="10"/>
+        <v>"9735",</v>
+      </c>
+      <c r="F113" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532","9719","9735",</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="9"/>
+        <v>9810</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="10"/>
+        <v>"9810",</v>
+      </c>
+      <c r="F114" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532","9719","9735","9810",</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/7. 500只股票池/股票池整理.xlsx
+++ b/7. 500只股票池/股票池整理.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="159">
   <si>
     <t>J2146</t>
   </si>
@@ -241,9 +241,6 @@
     <t>J9787</t>
   </si>
   <si>
-    <t>J1820</t>
-  </si>
-  <si>
     <t>J6273</t>
   </si>
   <si>
@@ -286,18 +283,6 @@
     <t>J7974</t>
   </si>
   <si>
-    <t>J1821</t>
-  </si>
-  <si>
-    <t>J2914</t>
-  </si>
-  <si>
-    <t>J3254</t>
-  </si>
-  <si>
-    <t>J3941</t>
-  </si>
-  <si>
     <t>J4528</t>
   </si>
   <si>
@@ -412,36 +397,6 @@
     <t>J1605</t>
   </si>
   <si>
-    <t>J1928</t>
-  </si>
-  <si>
-    <t>J2267</t>
-  </si>
-  <si>
-    <t>J2282</t>
-  </si>
-  <si>
-    <t>J2433</t>
-  </si>
-  <si>
-    <t>J2702</t>
-  </si>
-  <si>
-    <t>J2768</t>
-  </si>
-  <si>
-    <t>J2801</t>
-  </si>
-  <si>
-    <t>J2875</t>
-  </si>
-  <si>
-    <t>J3291</t>
-  </si>
-  <si>
-    <t>J4061</t>
-  </si>
-  <si>
     <t>J4527</t>
   </si>
   <si>
@@ -518,6 +473,33 @@
   </si>
   <si>
     <t>J9735</t>
+  </si>
+  <si>
+    <t>J4816</t>
+  </si>
+  <si>
+    <t>J9501</t>
+  </si>
+  <si>
+    <t>J7453</t>
+  </si>
+  <si>
+    <t>J6770</t>
+  </si>
+  <si>
+    <t>J9766</t>
+  </si>
+  <si>
+    <t>J6028</t>
+  </si>
+  <si>
+    <t>J7205</t>
+  </si>
+  <si>
+    <t>J8283</t>
+  </si>
+  <si>
+    <t>J3382</t>
   </si>
 </sst>
 </file>
@@ -550,6 +532,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -594,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -602,6 +585,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3471,8 +3457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3481,12 +3467,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>128</v>
+      <c r="A1" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="B1" t="str">
         <f>RIGHT(A1,4)</f>
-        <v>1605</v>
+        <v>4816</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -3496,20 +3482,20 @@
       </c>
       <c r="E1" t="str">
         <f>C1&amp;B1&amp;C1&amp;D1</f>
-        <v>"1605",</v>
+        <v>"4816",</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>E1</f>
-        <v>"1605",</v>
+        <v>"4816",</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>72</v>
+      <c r="A2" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B26" si="0">RIGHT(A2,4)</f>
-        <v>1820</v>
+        <v>7148</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -3519,20 +3505,20 @@
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E26" si="1">C2&amp;B2&amp;C2&amp;D2</f>
-        <v>"1820",</v>
+        <v>"7148",</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>F1&amp;E2</f>
-        <v>"1605","1820",</v>
+        <v>"4816","7148",</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
+      <c r="A3" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>1821</v>
+        <v>9513</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -3542,20 +3528,20 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" si="1"/>
-        <v>"1821",</v>
+        <v>"9513",</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ref="F3:F26" si="2">F2&amp;E3</f>
-        <v>"1605","1820","1821",</v>
+        <v>"4816","7148","9513",</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>129</v>
+      <c r="A4" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>1928</v>
+        <v>5541</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3565,20 +3551,20 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
-        <v>"1928",</v>
+        <v>"5541",</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928",</v>
+        <v>"4816","7148","9513","5541",</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>130</v>
+      <c r="A5" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>2267</v>
+        <v>9501</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -3588,20 +3574,20 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
-        <v>"2267",</v>
+        <v>"9501",</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267",</v>
+        <v>"4816","7148","9513","5541","9501",</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>131</v>
+      <c r="A6" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>2282</v>
+        <v>7453</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -3611,20 +3597,20 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
-        <v>"2282",</v>
+        <v>"7453",</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282",</v>
+        <v>"4816","7148","9513","5541","9501","7453",</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>132</v>
+      <c r="A7" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>2433</v>
+        <v>9101</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -3634,20 +3620,20 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
-        <v>"2433",</v>
+        <v>"9101",</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101",</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>133</v>
+      <c r="A8" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>2702</v>
+        <v>6770</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -3657,20 +3643,20 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
-        <v>"2702",</v>
+        <v>"6770",</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770",</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>134</v>
+      <c r="A9" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>2768</v>
+        <v>9766</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -3680,20 +3666,20 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
-        <v>"2768",</v>
+        <v>"9766",</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766",</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>135</v>
+      <c r="A10" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>2801</v>
+        <v>6028</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -3703,20 +3689,20 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
-        <v>"2801",</v>
+        <v>"6028",</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028",</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>136</v>
+      <c r="A11" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>2875</v>
+        <v>7205</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -3726,20 +3712,20 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
-        <v>"2875",</v>
+        <v>"7205",</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205",</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>88</v>
+      <c r="A12" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>2914</v>
+        <v>3659</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -3749,20 +3735,20 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
-        <v>"2914",</v>
+        <v>"3659",</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659",</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
+      <c r="A13" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>3038</v>
+        <v>5334</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -3772,20 +3758,20 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
-        <v>"3038",</v>
+        <v>"5334",</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334",</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>89</v>
+      <c r="A14" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>3254</v>
+        <v>6762</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -3795,20 +3781,20 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
-        <v>"3254",</v>
+        <v>"6762",</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762",</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>137</v>
+      <c r="A15" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>3291</v>
+        <v>8303</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -3818,20 +3804,20 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
-        <v>"3291",</v>
+        <v>"8303",</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303",</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
+      <c r="A16" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>3626</v>
+        <v>4507</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -3841,20 +3827,20 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
-        <v>"3626",</v>
+        <v>"4507",</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507",</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>90</v>
+      <c r="A17" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>3941</v>
+        <v>8283</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -3864,20 +3850,20 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
-        <v>"3941",</v>
+        <v>"8283",</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283",</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>138</v>
+      <c r="A18" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>4061</v>
+        <v>1605</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -3887,20 +3873,20 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
-        <v>"4061",</v>
+        <v>"1605",</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605",</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
+      <c r="A19" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>4204</v>
+        <v>3382</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -3910,20 +3896,20 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
-        <v>"4204",</v>
+        <v>"3382",</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382",</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>28</v>
+      <c r="A20" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>4307</v>
+        <v>4661</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -3933,16 +3919,16 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
-        <v>"4307",</v>
+        <v>"4661",</v>
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661",</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -3960,12 +3946,12 @@
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507",</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -3983,12 +3969,12 @@
       </c>
       <c r="F22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527",</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -4006,12 +3992,12 @@
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528",</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -4029,12 +4015,12 @@
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543",</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -4052,12 +4038,12 @@
       </c>
       <c r="F25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684",</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -4075,12 +4061,12 @@
       </c>
       <c r="F26" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732",</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" ref="B27:B70" si="3">RIGHT(A27,4)</f>
@@ -4098,12 +4084,12 @@
       </c>
       <c r="F27" s="2" t="str">
         <f t="shared" ref="F27:F70" si="5">F26&amp;E27</f>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768",</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="3"/>
@@ -4121,12 +4107,12 @@
       </c>
       <c r="F28" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902",</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="3"/>
@@ -4144,12 +4130,12 @@
       </c>
       <c r="F29" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108",</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="3"/>
@@ -4167,12 +4153,12 @@
       </c>
       <c r="F30" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214",</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="3"/>
@@ -4190,7 +4176,7 @@
       </c>
       <c r="F31" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232",</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -4213,12 +4199,12 @@
       </c>
       <c r="F32" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334",</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="3"/>
@@ -4236,12 +4222,12 @@
       </c>
       <c r="F33" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393",</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="3"/>
@@ -4259,12 +4245,12 @@
       </c>
       <c r="F34" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631",</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="3"/>
@@ -4282,7 +4268,7 @@
       </c>
       <c r="F35" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055",</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -4305,12 +4291,12 @@
       </c>
       <c r="F36" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146",</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="3"/>
@@ -4328,12 +4314,12 @@
       </c>
       <c r="F37" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178",</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="3"/>
@@ -4351,12 +4337,12 @@
       </c>
       <c r="F38" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235",</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="3"/>
@@ -4374,12 +4360,12 @@
       </c>
       <c r="F39" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273",</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="3"/>
@@ -4397,12 +4383,12 @@
       </c>
       <c r="F40" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326",</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="3"/>
@@ -4420,12 +4406,12 @@
       </c>
       <c r="F41" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361",</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="3"/>
@@ -4443,12 +4429,12 @@
       </c>
       <c r="F42" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367",</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="3"/>
@@ -4466,12 +4452,12 @@
       </c>
       <c r="F43" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448",</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="3"/>
@@ -4489,7 +4475,7 @@
       </c>
       <c r="F44" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472",</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4512,7 +4498,7 @@
       </c>
       <c r="F45" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479",</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4535,12 +4521,12 @@
       </c>
       <c r="F46" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504",</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="3"/>
@@ -4558,12 +4544,12 @@
       </c>
       <c r="F47" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506",</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="3"/>
@@ -4581,12 +4567,12 @@
       </c>
       <c r="F48" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594",</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="3"/>
@@ -4604,12 +4590,12 @@
       </c>
       <c r="F49" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645",</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="3"/>
@@ -4627,12 +4613,12 @@
       </c>
       <c r="F50" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674",</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="3"/>
@@ -4650,7 +4636,7 @@
       </c>
       <c r="F51" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724",</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4673,12 +4659,12 @@
       </c>
       <c r="F52" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727",</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="3"/>
@@ -4696,7 +4682,7 @@
       </c>
       <c r="F53" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728",</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4719,7 +4705,7 @@
       </c>
       <c r="F54" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758",</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4742,7 +4728,7 @@
       </c>
       <c r="F55" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845",</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4765,12 +4751,12 @@
       </c>
       <c r="F56" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857",</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="3"/>
@@ -4788,12 +4774,12 @@
       </c>
       <c r="F57" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861",</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="3"/>
@@ -4811,7 +4797,7 @@
       </c>
       <c r="F58" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869",</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4834,7 +4820,7 @@
       </c>
       <c r="F59" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902",</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4857,12 +4843,12 @@
       </c>
       <c r="F60" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920",</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="3"/>
@@ -4880,7 +4866,7 @@
       </c>
       <c r="F61" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954",</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4903,12 +4889,12 @@
       </c>
       <c r="F62" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965",</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="3"/>
@@ -4926,7 +4912,7 @@
       </c>
       <c r="F63" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971",</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4949,12 +4935,12 @@
       </c>
       <c r="F64" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976",</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="3"/>
@@ -4972,7 +4958,7 @@
       </c>
       <c r="F65" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981",</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4995,12 +4981,12 @@
       </c>
       <c r="F66" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988",</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="3"/>
@@ -5018,12 +5004,12 @@
       </c>
       <c r="F67" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148",</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="3"/>
@@ -5041,12 +5027,12 @@
       </c>
       <c r="F68" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259",</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="3"/>
@@ -5064,12 +5050,12 @@
       </c>
       <c r="F69" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459",</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="3"/>
@@ -5087,12 +5073,12 @@
       </c>
       <c r="F70" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550",</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" ref="B71:B93" si="6">RIGHT(A71,4)</f>
@@ -5110,12 +5096,12 @@
       </c>
       <c r="F71" s="2" t="str">
         <f t="shared" ref="F71:F93" si="8">F70&amp;E71</f>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701",</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="6"/>
@@ -5133,12 +5119,12 @@
       </c>
       <c r="F72" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731",</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="6"/>
@@ -5156,7 +5142,7 @@
       </c>
       <c r="F73" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733",</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -5179,12 +5165,12 @@
       </c>
       <c r="F74" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735",</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="6"/>
@@ -5202,12 +5188,12 @@
       </c>
       <c r="F75" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751",</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="6"/>
@@ -5225,7 +5211,7 @@
       </c>
       <c r="F76" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846",</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -5248,12 +5234,12 @@
       </c>
       <c r="F77" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911",</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="6"/>
@@ -5271,12 +5257,12 @@
       </c>
       <c r="F78" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912",</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="6"/>
@@ -5294,12 +5280,12 @@
       </c>
       <c r="F79" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974",</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="6"/>
@@ -5317,7 +5303,7 @@
       </c>
       <c r="F80" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001",</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -5340,12 +5326,12 @@
       </c>
       <c r="F81" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002",</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="6"/>
@@ -5363,7 +5349,7 @@
       </c>
       <c r="F82" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031",</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -5386,12 +5372,12 @@
       </c>
       <c r="F83" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035",</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="6"/>
@@ -5409,12 +5395,12 @@
       </c>
       <c r="F84" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053",</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="6"/>
@@ -5432,12 +5418,12 @@
       </c>
       <c r="F85" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058",</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="6"/>
@@ -5455,12 +5441,12 @@
       </c>
       <c r="F86" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113",</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="6"/>
@@ -5478,12 +5464,12 @@
       </c>
       <c r="F87" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303",</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="6"/>
@@ -5501,12 +5487,12 @@
       </c>
       <c r="F88" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309",</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="6"/>
@@ -5524,12 +5510,12 @@
       </c>
       <c r="F89" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424",</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="6"/>
@@ -5547,12 +5533,12 @@
       </c>
       <c r="F90" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473",</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="6"/>
@@ -5570,12 +5556,12 @@
       </c>
       <c r="F91" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593",</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="6"/>
@@ -5593,12 +5579,12 @@
       </c>
       <c r="F92" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697",</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="6"/>
@@ -5616,12 +5602,12 @@
       </c>
       <c r="F93" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766",</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" ref="B94:B114" si="9">RIGHT(A94,4)</f>
@@ -5639,12 +5625,12 @@
       </c>
       <c r="F94" s="2" t="str">
         <f t="shared" ref="F94:F114" si="11">F93&amp;E94</f>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804",</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="9"/>
@@ -5662,12 +5648,12 @@
       </c>
       <c r="F95" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919",</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="9"/>
@@ -5685,12 +5671,12 @@
       </c>
       <c r="F96" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062",</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="9"/>
@@ -5708,12 +5694,12 @@
       </c>
       <c r="F97" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064",</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="9"/>
@@ -5731,12 +5717,12 @@
       </c>
       <c r="F98" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086",</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="9"/>
@@ -5754,12 +5740,12 @@
       </c>
       <c r="F99" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101",</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="9"/>
@@ -5777,12 +5763,12 @@
       </c>
       <c r="F100" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104",</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="9"/>
@@ -5800,12 +5786,12 @@
       </c>
       <c r="F101" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107",</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="9"/>
@@ -5823,12 +5809,12 @@
       </c>
       <c r="F102" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375",</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="9"/>
@@ -5846,12 +5832,12 @@
       </c>
       <c r="F103" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502",</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="9"/>
@@ -5869,12 +5855,12 @@
       </c>
       <c r="F104" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503",</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="9"/>
@@ -5892,12 +5878,12 @@
       </c>
       <c r="F105" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504",</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="9"/>
@@ -5915,12 +5901,12 @@
       </c>
       <c r="F106" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506",</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="9"/>
@@ -5938,12 +5924,12 @@
       </c>
       <c r="F107" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508",</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="9"/>
@@ -5961,12 +5947,12 @@
       </c>
       <c r="F108" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509",</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="9"/>
@@ -5984,12 +5970,12 @@
       </c>
       <c r="F109" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513",</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="9"/>
@@ -6007,12 +5993,12 @@
       </c>
       <c r="F110" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531",</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="9"/>
@@ -6030,12 +6016,12 @@
       </c>
       <c r="F111" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532",</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="9"/>
@@ -6053,12 +6039,12 @@
       </c>
       <c r="F112" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532","9719",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532","9719",</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="9"/>
@@ -6076,12 +6062,12 @@
       </c>
       <c r="F113" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532","9719","9735",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532","9719","9735",</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="9"/>
@@ -6099,7 +6085,7 @@
       </c>
       <c r="F114" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"1605","1820","1821","1928","2267","2282","2433","2702","2768","2801","2875","2914","3038","3254","3291","3626","3941","4061","4204","4307","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532","9719","9735","9810",</v>
+        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532","9719","9735","9810",</v>
       </c>
     </row>
   </sheetData>

--- a/7. 500只股票池/股票池整理.xlsx
+++ b/7. 500只股票池/股票池整理.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="161">
   <si>
     <t>J2146</t>
   </si>
@@ -247,105 +247,18 @@
     <t>J6361</t>
   </si>
   <si>
-    <t>J6728</t>
-  </si>
-  <si>
-    <t>J6869</t>
-  </si>
-  <si>
-    <t>J8113</t>
-  </si>
-  <si>
-    <t>J5214</t>
-  </si>
-  <si>
-    <t>J6674</t>
-  </si>
-  <si>
     <t>J8919</t>
   </si>
   <si>
-    <t>J4507</t>
-  </si>
-  <si>
-    <t>J4684</t>
-  </si>
-  <si>
-    <t>J4768</t>
-  </si>
-  <si>
-    <t>J6235</t>
-  </si>
-  <si>
-    <t>J6326</t>
-  </si>
-  <si>
     <t>J7974</t>
   </si>
   <si>
-    <t>J4528</t>
-  </si>
-  <si>
-    <t>J5232</t>
-  </si>
-  <si>
-    <t>J5393</t>
-  </si>
-  <si>
-    <t>J5631</t>
-  </si>
-  <si>
-    <t>J6055</t>
-  </si>
-  <si>
-    <t>J6178</t>
-  </si>
-  <si>
-    <t>J6367</t>
-  </si>
-  <si>
-    <t>J6506</t>
-  </si>
-  <si>
-    <t>J6724</t>
-  </si>
-  <si>
-    <t>J6971</t>
-  </si>
-  <si>
-    <t>J7701</t>
-  </si>
-  <si>
-    <t>J7731</t>
-  </si>
-  <si>
     <t>J7846</t>
   </si>
   <si>
     <t>J8001</t>
   </si>
   <si>
-    <t>J8058</t>
-  </si>
-  <si>
-    <t>J8303</t>
-  </si>
-  <si>
-    <t>J8309</t>
-  </si>
-  <si>
-    <t>J8424</t>
-  </si>
-  <si>
-    <t>J8473</t>
-  </si>
-  <si>
-    <t>J8804</t>
-  </si>
-  <si>
-    <t>J9062</t>
-  </si>
-  <si>
     <t>J9064</t>
   </si>
   <si>
@@ -400,106 +313,199 @@
     <t>J4527</t>
   </si>
   <si>
-    <t>J4543</t>
-  </si>
-  <si>
-    <t>J4732</t>
-  </si>
-  <si>
-    <t>J4902</t>
-  </si>
-  <si>
-    <t>J5108</t>
-  </si>
-  <si>
-    <t>J6448</t>
-  </si>
-  <si>
-    <t>J6472</t>
-  </si>
-  <si>
-    <t>J6594</t>
-  </si>
-  <si>
-    <t>J6645</t>
-  </si>
-  <si>
-    <t>J6861</t>
-  </si>
-  <si>
-    <t>J6954</t>
-  </si>
-  <si>
-    <t>J6981</t>
-  </si>
-  <si>
-    <t>J7148</t>
-  </si>
-  <si>
-    <t>J7259</t>
-  </si>
-  <si>
-    <t>J7459</t>
-  </si>
-  <si>
-    <t>J7550</t>
-  </si>
-  <si>
-    <t>J7733</t>
-  </si>
-  <si>
-    <t>J7751</t>
-  </si>
-  <si>
     <t>J7912</t>
   </si>
   <si>
-    <t>J8031</t>
-  </si>
-  <si>
     <t>J8053</t>
   </si>
   <si>
-    <t>J8593</t>
-  </si>
-  <si>
-    <t>J8697</t>
-  </si>
-  <si>
-    <t>J8766</t>
-  </si>
-  <si>
     <t>J9508</t>
   </si>
   <si>
     <t>J9735</t>
   </si>
   <si>
-    <t>J4816</t>
-  </si>
-  <si>
     <t>J9501</t>
   </si>
   <si>
-    <t>J7453</t>
-  </si>
-  <si>
-    <t>J6770</t>
-  </si>
-  <si>
-    <t>J9766</t>
-  </si>
-  <si>
-    <t>J6028</t>
-  </si>
-  <si>
-    <t>J7205</t>
-  </si>
-  <si>
-    <t>J8283</t>
-  </si>
-  <si>
-    <t>J3382</t>
+    <t>J5707</t>
+  </si>
+  <si>
+    <t>J9517</t>
+  </si>
+  <si>
+    <t>J7747</t>
+  </si>
+  <si>
+    <t>J5021</t>
+  </si>
+  <si>
+    <t>J5714</t>
+  </si>
+  <si>
+    <t>J5019</t>
+  </si>
+  <si>
+    <t>J3064</t>
+  </si>
+  <si>
+    <t>J7011</t>
+  </si>
+  <si>
+    <t>J2317</t>
+  </si>
+  <si>
+    <t>J7532</t>
+  </si>
+  <si>
+    <t>J5713</t>
+  </si>
+  <si>
+    <t>J4922</t>
+  </si>
+  <si>
+    <t>J2267</t>
+  </si>
+  <si>
+    <t>J3088</t>
+  </si>
+  <si>
+    <t>J2201</t>
+  </si>
+  <si>
+    <t>J6856</t>
+  </si>
+  <si>
+    <t>J1812</t>
+  </si>
+  <si>
+    <t>J4612</t>
+  </si>
+  <si>
+    <t>J3769</t>
+  </si>
+  <si>
+    <t>J1719</t>
+  </si>
+  <si>
+    <t>J8088</t>
+  </si>
+  <si>
+    <t>J2802</t>
+  </si>
+  <si>
+    <t>J9432</t>
+  </si>
+  <si>
+    <t>J5706</t>
+  </si>
+  <si>
+    <t>J5401</t>
+  </si>
+  <si>
+    <t>J7564</t>
+  </si>
+  <si>
+    <t>J2768</t>
+  </si>
+  <si>
+    <t>J9843</t>
+  </si>
+  <si>
+    <t>J7013</t>
+  </si>
+  <si>
+    <t>J5857</t>
+  </si>
+  <si>
+    <t>J5406</t>
+  </si>
+  <si>
+    <t>J1721</t>
+  </si>
+  <si>
+    <t>J9434</t>
+  </si>
+  <si>
+    <t>J1820</t>
+  </si>
+  <si>
+    <t>J5411</t>
+  </si>
+  <si>
+    <t>J8595</t>
+  </si>
+  <si>
+    <t>J1963</t>
+  </si>
+  <si>
+    <t>J1417</t>
+  </si>
+  <si>
+    <t>J5020</t>
+  </si>
+  <si>
+    <t>J3391</t>
+  </si>
+  <si>
+    <t>J2811</t>
+  </si>
+  <si>
+    <t>J2897</t>
+  </si>
+  <si>
+    <t>J5703</t>
+  </si>
+  <si>
+    <t>J7575</t>
+  </si>
+  <si>
+    <t>J2432</t>
+  </si>
+  <si>
+    <t>J2809</t>
+  </si>
+  <si>
+    <t>J9433</t>
+  </si>
+  <si>
+    <t>J8020</t>
+  </si>
+  <si>
+    <t>J2587</t>
+  </si>
+  <si>
+    <t>J6841</t>
+  </si>
+  <si>
+    <t>J2784</t>
+  </si>
+  <si>
+    <t>J9989</t>
+  </si>
+  <si>
+    <t>J1942</t>
+  </si>
+  <si>
+    <t>J1951</t>
+  </si>
+  <si>
+    <t>J9301</t>
+  </si>
+  <si>
+    <t>J5711</t>
+  </si>
+  <si>
+    <t>J4182</t>
+  </si>
+  <si>
+    <t>J1801</t>
+  </si>
+  <si>
+    <t>J8892</t>
+  </si>
+  <si>
+    <t>J6750</t>
   </si>
 </sst>
 </file>
@@ -3457,8 +3463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3468,11 +3474,11 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="B1" t="str">
         <f>RIGHT(A1,4)</f>
-        <v>4816</v>
+        <v>5707</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -3482,20 +3488,20 @@
       </c>
       <c r="E1" t="str">
         <f>C1&amp;B1&amp;C1&amp;D1</f>
-        <v>"4816",</v>
+        <v>"5707",</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>E1</f>
-        <v>"4816",</v>
+        <v>"5707",</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B26" si="0">RIGHT(A2,4)</f>
-        <v>7148</v>
+        <v>9517</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -3505,20 +3511,20 @@
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E26" si="1">C2&amp;B2&amp;C2&amp;D2</f>
-        <v>"7148",</v>
+        <v>"9517",</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>F1&amp;E2</f>
-        <v>"4816","7148",</v>
+        <v>"5707","9517",</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>9513</v>
+        <v>7747</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -3528,20 +3534,20 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" si="1"/>
-        <v>"9513",</v>
+        <v>"7747",</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ref="F3:F26" si="2">F2&amp;E3</f>
-        <v>"4816","7148","9513",</v>
+        <v>"5707","9517","7747",</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>5541</v>
+        <v>5021</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3551,20 +3557,20 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
-        <v>"5541",</v>
+        <v>"5021",</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541",</v>
+        <v>"5707","9517","7747","5021",</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>9501</v>
+        <v>9101</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -3574,20 +3580,20 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
-        <v>"9501",</v>
+        <v>"9101",</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501",</v>
+        <v>"5707","9517","7747","5021","9101",</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>7453</v>
+        <v>5541</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -3597,20 +3603,20 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
-        <v>"7453",</v>
+        <v>"5541",</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453",</v>
+        <v>"5707","9517","7747","5021","9101","5541",</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>9101</v>
+        <v>9104</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -3620,20 +3626,20 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
-        <v>"9101",</v>
+        <v>"9104",</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104",</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>6770</v>
+        <v>1605</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -3643,20 +3649,20 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
-        <v>"6770",</v>
+        <v>"1605",</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605",</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>9766</v>
+        <v>4527</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -3666,20 +3672,20 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
-        <v>"9766",</v>
+        <v>"4527",</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527",</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>6028</v>
+        <v>9107</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -3689,20 +3695,20 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
-        <v>"6028",</v>
+        <v>"9107",</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107",</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>7205</v>
+        <v>5714</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -3712,20 +3718,20 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
-        <v>"7205",</v>
+        <v>"5714",</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714",</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>3659</v>
+        <v>5019</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -3735,20 +3741,20 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
-        <v>"3659",</v>
+        <v>"5019",</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019",</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>5334</v>
+        <v>3064</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -3758,20 +3764,20 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
-        <v>"5334",</v>
+        <v>"3064",</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064",</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>6762</v>
+        <v>7846</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -3781,20 +3787,20 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
-        <v>"6762",</v>
+        <v>"7846",</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846",</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>8303</v>
+        <v>7011</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -3804,20 +3810,20 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
-        <v>"8303",</v>
+        <v>"7011",</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011",</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>4507</v>
+        <v>2317</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -3827,20 +3833,20 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
-        <v>"4507",</v>
+        <v>"2317",</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317",</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>8283</v>
+        <v>7532</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -3850,20 +3856,20 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
-        <v>"8283",</v>
+        <v>"7532",</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532",</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>1605</v>
+        <v>3659</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -3873,20 +3879,20 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
-        <v>"1605",</v>
+        <v>"3659",</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659",</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>3382</v>
+        <v>5713</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -3896,20 +3902,20 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
-        <v>"3382",</v>
+        <v>"5713",</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713",</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>4661</v>
+        <v>4922</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -3919,20 +3925,20 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
-        <v>"4661",</v>
+        <v>"4922",</v>
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922",</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>80</v>
+      <c r="A21" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>4507</v>
+        <v>2267</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -3942,20 +3948,20 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
-        <v>"4507",</v>
+        <v>"2267",</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267",</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>124</v>
+      <c r="A22" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>4527</v>
+        <v>4704</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -3965,20 +3971,20 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
-        <v>"4527",</v>
+        <v>"4704",</v>
       </c>
       <c r="F22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704",</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>86</v>
+      <c r="A23" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>4528</v>
+        <v>3088</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -3988,20 +3994,20 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
-        <v>"4528",</v>
+        <v>"3088",</v>
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088",</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>125</v>
+      <c r="A24" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>4543</v>
+        <v>2201</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -4011,20 +4017,20 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
-        <v>"4543",</v>
+        <v>"2201",</v>
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201",</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>81</v>
+      <c r="A25" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>4684</v>
+        <v>6856</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -4034,20 +4040,20 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
-        <v>"4684",</v>
+        <v>"6856",</v>
       </c>
       <c r="F25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856",</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>126</v>
+      <c r="A26" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>4732</v>
+        <v>1812</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -4057,20 +4063,20 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="1"/>
-        <v>"4732",</v>
+        <v>"1812",</v>
       </c>
       <c r="F26" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812",</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>82</v>
+      <c r="A27" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" ref="B27:B70" si="3">RIGHT(A27,4)</f>
-        <v>4768</v>
+        <v>4612</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -4080,20 +4086,20 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" ref="E27:E70" si="4">C27&amp;B27&amp;C27&amp;D27</f>
-        <v>"4768",</v>
+        <v>"4612",</v>
       </c>
       <c r="F27" s="2" t="str">
         <f t="shared" ref="F27:F70" si="5">F26&amp;E27</f>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612",</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>127</v>
+      <c r="A28" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="3"/>
-        <v>4902</v>
+        <v>3349</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -4103,20 +4109,20 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="4"/>
-        <v>"4902",</v>
+        <v>"3349",</v>
       </c>
       <c r="F28" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349",</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>128</v>
+      <c r="A29" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="3"/>
-        <v>5108</v>
+        <v>3769</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -4126,20 +4132,20 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="4"/>
-        <v>"5108",</v>
+        <v>"3769",</v>
       </c>
       <c r="F29" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769",</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>77</v>
+      <c r="A30" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="3"/>
-        <v>5214</v>
+        <v>7832</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -4149,20 +4155,20 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="4"/>
-        <v>"5214",</v>
+        <v>"7832",</v>
       </c>
       <c r="F30" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832",</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>87</v>
+      <c r="A31" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="3"/>
-        <v>5232</v>
+        <v>1719</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -4172,20 +4178,20 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="4"/>
-        <v>"5232",</v>
+        <v>"1719",</v>
       </c>
       <c r="F31" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719",</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>37</v>
+      <c r="A32" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="3"/>
-        <v>5334</v>
+        <v>3038</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -4195,20 +4201,20 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="4"/>
-        <v>"5334",</v>
+        <v>"3038",</v>
       </c>
       <c r="F32" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038",</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>88</v>
+      <c r="A33" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="3"/>
-        <v>5393</v>
+        <v>9086</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -4218,20 +4224,20 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="4"/>
-        <v>"5393",</v>
+        <v>"9086",</v>
       </c>
       <c r="F33" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086",</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>89</v>
+      <c r="A34" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="3"/>
-        <v>5631</v>
+        <v>8088</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -4241,20 +4247,20 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="4"/>
-        <v>"5631",</v>
+        <v>"8088",</v>
       </c>
       <c r="F34" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088",</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>90</v>
+      <c r="A35" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="3"/>
-        <v>6055</v>
+        <v>8002</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -4264,20 +4270,20 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="4"/>
-        <v>"6055",</v>
+        <v>"8002",</v>
       </c>
       <c r="F35" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002",</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>38</v>
+      <c r="A36" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="3"/>
-        <v>6146</v>
+        <v>4568</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -4287,20 +4293,20 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" si="4"/>
-        <v>"6146",</v>
+        <v>"4568",</v>
       </c>
       <c r="F36" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568",</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>91</v>
+      <c r="A37" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="3"/>
-        <v>6178</v>
+        <v>7912</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -4310,20 +4316,20 @@
       </c>
       <c r="E37" t="str">
         <f t="shared" si="4"/>
-        <v>"6178",</v>
+        <v>"7912",</v>
       </c>
       <c r="F37" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912",</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>83</v>
+      <c r="A38" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="3"/>
-        <v>6235</v>
+        <v>2802</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -4333,20 +4339,20 @@
       </c>
       <c r="E38" t="str">
         <f t="shared" si="4"/>
-        <v>"6235",</v>
+        <v>"2802",</v>
       </c>
       <c r="F38" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802",</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>72</v>
+      <c r="A39" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="3"/>
-        <v>6273</v>
+        <v>9532</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -4356,20 +4362,20 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" si="4"/>
-        <v>"6273",</v>
+        <v>"9532",</v>
       </c>
       <c r="F39" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532",</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>84</v>
+      <c r="A40" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="3"/>
-        <v>6326</v>
+        <v>6361</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -4379,20 +4385,20 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" si="4"/>
-        <v>"6326",</v>
+        <v>"6361",</v>
       </c>
       <c r="F40" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361",</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>73</v>
+      <c r="A41" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="3"/>
-        <v>6361</v>
+        <v>9432</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -4402,20 +4408,20 @@
       </c>
       <c r="E41" t="str">
         <f t="shared" si="4"/>
-        <v>"6361",</v>
+        <v>"9432",</v>
       </c>
       <c r="F41" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432",</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>92</v>
+      <c r="A42" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="3"/>
-        <v>6367</v>
+        <v>1911</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
@@ -4425,20 +4431,20 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" si="4"/>
-        <v>"6367",</v>
+        <v>"1911",</v>
       </c>
       <c r="F42" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911",</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>129</v>
+      <c r="A43" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="3"/>
-        <v>6448</v>
+        <v>8053</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -4448,20 +4454,20 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" si="4"/>
-        <v>"6448",</v>
+        <v>"8053",</v>
       </c>
       <c r="F43" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053",</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>130</v>
+      <c r="A44" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="3"/>
-        <v>6472</v>
+        <v>5706</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -4471,20 +4477,20 @@
       </c>
       <c r="E44" t="str">
         <f t="shared" si="4"/>
-        <v>"6472",</v>
+        <v>"5706",</v>
       </c>
       <c r="F44" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706",</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>40</v>
+      <c r="A45" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="3"/>
-        <v>6479</v>
+        <v>5401</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
@@ -4494,20 +4500,20 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" si="4"/>
-        <v>"6479",</v>
+        <v>"5401",</v>
       </c>
       <c r="F45" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401",</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>42</v>
+      <c r="A46" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="3"/>
-        <v>6504</v>
+        <v>9502</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
@@ -4517,20 +4523,20 @@
       </c>
       <c r="E46" t="str">
         <f t="shared" si="4"/>
-        <v>"6504",</v>
+        <v>"9502",</v>
       </c>
       <c r="F46" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502",</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>93</v>
+      <c r="A47" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="3"/>
-        <v>6506</v>
+        <v>9503</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
@@ -4540,20 +4546,20 @@
       </c>
       <c r="E47" t="str">
         <f t="shared" si="4"/>
-        <v>"6506",</v>
+        <v>"9503",</v>
       </c>
       <c r="F47" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503",</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>131</v>
+      <c r="A48" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="3"/>
-        <v>6594</v>
+        <v>7564</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
@@ -4563,20 +4569,20 @@
       </c>
       <c r="E48" t="str">
         <f t="shared" si="4"/>
-        <v>"6594",</v>
+        <v>"7564",</v>
       </c>
       <c r="F48" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564",</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>132</v>
+      <c r="A49" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="3"/>
-        <v>6645</v>
+        <v>2768</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
@@ -4586,20 +4592,20 @@
       </c>
       <c r="E49" t="str">
         <f t="shared" si="4"/>
-        <v>"6645",</v>
+        <v>"2768",</v>
       </c>
       <c r="F49" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768",</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>78</v>
+      <c r="A50" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="3"/>
-        <v>6674</v>
+        <v>4848</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
@@ -4609,20 +4615,20 @@
       </c>
       <c r="E50" t="str">
         <f t="shared" si="4"/>
-        <v>"6674",</v>
+        <v>"4848",</v>
       </c>
       <c r="F50" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848",</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>94</v>
+      <c r="A51" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="3"/>
-        <v>6724</v>
+        <v>9509</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
@@ -4632,20 +4638,20 @@
       </c>
       <c r="E51" t="str">
         <f t="shared" si="4"/>
-        <v>"6724",</v>
+        <v>"9509",</v>
       </c>
       <c r="F51" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509",</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>44</v>
+      <c r="A52" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="3"/>
-        <v>6727</v>
+        <v>9843</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
@@ -4655,20 +4661,20 @@
       </c>
       <c r="E52" t="str">
         <f t="shared" si="4"/>
-        <v>"6727",</v>
+        <v>"9843",</v>
       </c>
       <c r="F52" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843",</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>74</v>
+      <c r="A53" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="3"/>
-        <v>6728</v>
+        <v>7013</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -4678,20 +4684,20 @@
       </c>
       <c r="E53" t="str">
         <f t="shared" si="4"/>
-        <v>"6728",</v>
+        <v>"7013",</v>
       </c>
       <c r="F53" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013",</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>5</v>
+      <c r="A54" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="3"/>
-        <v>6758</v>
+        <v>5857</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -4701,20 +4707,20 @@
       </c>
       <c r="E54" t="str">
         <f t="shared" si="4"/>
-        <v>"6758",</v>
+        <v>"5857",</v>
       </c>
       <c r="F54" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857",</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>45</v>
+      <c r="A55" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="3"/>
-        <v>6845</v>
+        <v>5406</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
@@ -4724,20 +4730,20 @@
       </c>
       <c r="E55" t="str">
         <f t="shared" si="4"/>
-        <v>"6845",</v>
+        <v>"5406",</v>
       </c>
       <c r="F55" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406",</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>46</v>
+      <c r="A56" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="3"/>
-        <v>6857</v>
+        <v>1721</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
@@ -4747,20 +4753,20 @@
       </c>
       <c r="E56" t="str">
         <f t="shared" si="4"/>
-        <v>"6857",</v>
+        <v>"1721",</v>
       </c>
       <c r="F56" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721",</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>133</v>
+      <c r="A57" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="3"/>
-        <v>6861</v>
+        <v>9501</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -4770,20 +4776,20 @@
       </c>
       <c r="E57" t="str">
         <f t="shared" si="4"/>
-        <v>"6861",</v>
+        <v>"9501",</v>
       </c>
       <c r="F57" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501",</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>75</v>
+      <c r="A58" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="3"/>
-        <v>6869</v>
+        <v>9434</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -4793,20 +4799,20 @@
       </c>
       <c r="E58" t="str">
         <f t="shared" si="4"/>
-        <v>"6869",</v>
+        <v>"9434",</v>
       </c>
       <c r="F58" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434",</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>47</v>
+      <c r="A59" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="3"/>
-        <v>6902</v>
+        <v>1820</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -4816,20 +4822,20 @@
       </c>
       <c r="E59" t="str">
         <f t="shared" si="4"/>
-        <v>"6902",</v>
+        <v>"1820",</v>
       </c>
       <c r="F59" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820",</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>48</v>
+      <c r="A60" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="3"/>
-        <v>6920</v>
+        <v>9508</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -4839,20 +4845,20 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" si="4"/>
-        <v>"6920",</v>
+        <v>"9508",</v>
       </c>
       <c r="F60" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508",</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>134</v>
+      <c r="A61" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="3"/>
-        <v>6954</v>
+        <v>5411</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -4862,20 +4868,20 @@
       </c>
       <c r="E61" t="str">
         <f t="shared" si="4"/>
-        <v>"6954",</v>
+        <v>"5411",</v>
       </c>
       <c r="F61" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411",</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>50</v>
+      <c r="A62" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="3"/>
-        <v>6965</v>
+        <v>8595</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
@@ -4885,20 +4891,20 @@
       </c>
       <c r="E62" t="str">
         <f t="shared" si="4"/>
-        <v>"6965",</v>
+        <v>"8595",</v>
       </c>
       <c r="F62" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595",</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>95</v>
+      <c r="A63" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="3"/>
-        <v>6971</v>
+        <v>1963</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -4908,20 +4914,20 @@
       </c>
       <c r="E63" t="str">
         <f t="shared" si="4"/>
-        <v>"6971",</v>
+        <v>"1963",</v>
       </c>
       <c r="F63" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963",</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>51</v>
+      <c r="A64" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="3"/>
-        <v>6976</v>
+        <v>8919</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
@@ -4931,20 +4937,20 @@
       </c>
       <c r="E64" t="str">
         <f t="shared" si="4"/>
-        <v>"6976",</v>
+        <v>"8919",</v>
       </c>
       <c r="F64" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919",</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>135</v>
+      <c r="A65" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="3"/>
-        <v>6981</v>
+        <v>1417</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
@@ -4954,20 +4960,20 @@
       </c>
       <c r="E65" t="str">
         <f t="shared" si="4"/>
-        <v>"6981",</v>
+        <v>"1417",</v>
       </c>
       <c r="F65" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417",</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>52</v>
+      <c r="A66" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="3"/>
-        <v>6988</v>
+        <v>5020</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -4977,20 +4983,20 @@
       </c>
       <c r="E66" t="str">
         <f t="shared" si="4"/>
-        <v>"6988",</v>
+        <v>"5020",</v>
       </c>
       <c r="F66" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020",</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>136</v>
+      <c r="A67" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="3"/>
-        <v>7148</v>
+        <v>3391</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
@@ -5000,20 +5006,20 @@
       </c>
       <c r="E67" t="str">
         <f t="shared" si="4"/>
-        <v>"7148",</v>
+        <v>"3391",</v>
       </c>
       <c r="F67" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391",</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>137</v>
+      <c r="A68" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="3"/>
-        <v>7259</v>
+        <v>2811</v>
       </c>
       <c r="C68" t="s">
         <v>9</v>
@@ -5023,20 +5029,20 @@
       </c>
       <c r="E68" t="str">
         <f t="shared" si="4"/>
-        <v>"7259",</v>
+        <v>"2811",</v>
       </c>
       <c r="F68" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811",</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>138</v>
+      <c r="A69" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="3"/>
-        <v>7459</v>
+        <v>2897</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
@@ -5046,20 +5052,20 @@
       </c>
       <c r="E69" t="str">
         <f t="shared" si="4"/>
-        <v>"7459",</v>
+        <v>"2897",</v>
       </c>
       <c r="F69" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897",</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>139</v>
+      <c r="A70" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="3"/>
-        <v>7550</v>
+        <v>5703</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
@@ -5069,20 +5075,20 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" si="4"/>
-        <v>"7550",</v>
+        <v>"5703",</v>
       </c>
       <c r="F70" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703",</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>96</v>
+      <c r="A71" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" ref="B71:B93" si="6">RIGHT(A71,4)</f>
-        <v>7701</v>
+        <v>7575</v>
       </c>
       <c r="C71" t="s">
         <v>9</v>
@@ -5092,20 +5098,20 @@
       </c>
       <c r="E71" t="str">
         <f t="shared" ref="E71:E93" si="7">C71&amp;B71&amp;C71&amp;D71</f>
-        <v>"7701",</v>
+        <v>"7575",</v>
       </c>
       <c r="F71" s="2" t="str">
         <f t="shared" ref="F71:F93" si="8">F70&amp;E71</f>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575",</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>97</v>
+      <c r="A72" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="6"/>
-        <v>7731</v>
+        <v>2432</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
@@ -5115,20 +5121,20 @@
       </c>
       <c r="E72" t="str">
         <f t="shared" si="7"/>
-        <v>"7731",</v>
+        <v>"2432",</v>
       </c>
       <c r="F72" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432",</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>140</v>
+      <c r="A73" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="6"/>
-        <v>7733</v>
+        <v>9064</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
@@ -5138,20 +5144,20 @@
       </c>
       <c r="E73" t="str">
         <f t="shared" si="7"/>
-        <v>"7733",</v>
+        <v>"9064",</v>
       </c>
       <c r="F73" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064",</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>58</v>
+      <c r="A74" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="6"/>
-        <v>7735</v>
+        <v>4967</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
@@ -5161,20 +5167,20 @@
       </c>
       <c r="E74" t="str">
         <f t="shared" si="7"/>
-        <v>"7735",</v>
+        <v>"4967",</v>
       </c>
       <c r="F74" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967",</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>141</v>
+      <c r="A75" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="6"/>
-        <v>7751</v>
+        <v>2809</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
@@ -5184,20 +5190,20 @@
       </c>
       <c r="E75" t="str">
         <f t="shared" si="7"/>
-        <v>"7751",</v>
+        <v>"2809",</v>
       </c>
       <c r="F75" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809",</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>98</v>
+      <c r="A76" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="6"/>
-        <v>7846</v>
+        <v>9433</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
@@ -5207,20 +5213,20 @@
       </c>
       <c r="E76" t="str">
         <f t="shared" si="7"/>
-        <v>"7846",</v>
+        <v>"9433",</v>
       </c>
       <c r="F76" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433",</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>60</v>
+      <c r="A77" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="6"/>
-        <v>7911</v>
+        <v>8020</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
@@ -5230,20 +5236,20 @@
       </c>
       <c r="E77" t="str">
         <f t="shared" si="7"/>
-        <v>"7911",</v>
+        <v>"8020",</v>
       </c>
       <c r="F77" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020",</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>142</v>
+      <c r="A78" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="6"/>
-        <v>7912</v>
+        <v>7974</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
@@ -5253,20 +5259,20 @@
       </c>
       <c r="E78" t="str">
         <f t="shared" si="7"/>
-        <v>"7912",</v>
+        <v>"7974",</v>
       </c>
       <c r="F78" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974",</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>85</v>
+      <c r="A79" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="6"/>
-        <v>7974</v>
+        <v>2587</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
@@ -5276,20 +5282,20 @@
       </c>
       <c r="E79" t="str">
         <f t="shared" si="7"/>
-        <v>"7974",</v>
+        <v>"2587",</v>
       </c>
       <c r="F79" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587",</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>99</v>
+      <c r="A80" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="6"/>
-        <v>8001</v>
+        <v>6841</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
@@ -5299,20 +5305,20 @@
       </c>
       <c r="E80" t="str">
         <f t="shared" si="7"/>
-        <v>"8001",</v>
+        <v>"6841",</v>
       </c>
       <c r="F80" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841",</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>61</v>
+      <c r="A81" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="6"/>
-        <v>8002</v>
+        <v>2784</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
@@ -5322,20 +5328,20 @@
       </c>
       <c r="E81" t="str">
         <f t="shared" si="7"/>
-        <v>"8002",</v>
+        <v>"2784",</v>
       </c>
       <c r="F81" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784",</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>143</v>
+      <c r="A82" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="6"/>
-        <v>8031</v>
+        <v>9989</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
@@ -5345,20 +5351,20 @@
       </c>
       <c r="E82" t="str">
         <f t="shared" si="7"/>
-        <v>"8031",</v>
+        <v>"9989",</v>
       </c>
       <c r="F82" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989",</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>63</v>
+      <c r="A83" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="6"/>
-        <v>8035</v>
+        <v>7202</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
@@ -5368,20 +5374,20 @@
       </c>
       <c r="E83" t="str">
         <f t="shared" si="7"/>
-        <v>"8035",</v>
+        <v>"7202",</v>
       </c>
       <c r="F83" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202",</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>144</v>
+      <c r="A84" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="6"/>
-        <v>8053</v>
+        <v>1942</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
@@ -5391,20 +5397,20 @@
       </c>
       <c r="E84" t="str">
         <f t="shared" si="7"/>
-        <v>"8053",</v>
+        <v>"1942",</v>
       </c>
       <c r="F84" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942",</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>100</v>
+      <c r="A85" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="6"/>
-        <v>8058</v>
+        <v>9504</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
@@ -5414,20 +5420,20 @@
       </c>
       <c r="E85" t="str">
         <f t="shared" si="7"/>
-        <v>"8058",</v>
+        <v>"9504",</v>
       </c>
       <c r="F85" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504",</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>76</v>
+      <c r="A86" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="6"/>
-        <v>8113</v>
+        <v>1951</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
@@ -5437,20 +5443,20 @@
       </c>
       <c r="E86" t="str">
         <f t="shared" si="7"/>
-        <v>"8113",</v>
+        <v>"1951",</v>
       </c>
       <c r="F86" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951",</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>101</v>
+      <c r="A87" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="6"/>
-        <v>8303</v>
+        <v>9301</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
@@ -5460,20 +5466,20 @@
       </c>
       <c r="E87" t="str">
         <f t="shared" si="7"/>
-        <v>"8303",</v>
+        <v>"9301",</v>
       </c>
       <c r="F87" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301",</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>102</v>
+      <c r="A88" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="6"/>
-        <v>8309</v>
+        <v>6273</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
@@ -5483,20 +5489,20 @@
       </c>
       <c r="E88" t="str">
         <f t="shared" si="7"/>
-        <v>"8309",</v>
+        <v>"6273",</v>
       </c>
       <c r="F88" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273",</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>103</v>
+      <c r="A89" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="6"/>
-        <v>8424</v>
+        <v>4819</v>
       </c>
       <c r="C89" t="s">
         <v>9</v>
@@ -5506,20 +5512,20 @@
       </c>
       <c r="E89" t="str">
         <f t="shared" si="7"/>
-        <v>"8424",</v>
+        <v>"4819",</v>
       </c>
       <c r="F89" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819",</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>104</v>
+      <c r="A90" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="6"/>
-        <v>8473</v>
+        <v>8001</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
@@ -5529,20 +5535,20 @@
       </c>
       <c r="E90" t="str">
         <f t="shared" si="7"/>
-        <v>"8473",</v>
+        <v>"8001",</v>
       </c>
       <c r="F90" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001",</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>145</v>
+      <c r="A91" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="6"/>
-        <v>8593</v>
+        <v>5711</v>
       </c>
       <c r="C91" t="s">
         <v>9</v>
@@ -5552,20 +5558,20 @@
       </c>
       <c r="E91" t="str">
         <f t="shared" si="7"/>
-        <v>"8593",</v>
+        <v>"5711",</v>
       </c>
       <c r="F91" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711",</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>146</v>
+      <c r="A92" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="6"/>
-        <v>8697</v>
+        <v>9810</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
@@ -5575,20 +5581,20 @@
       </c>
       <c r="E92" t="str">
         <f t="shared" si="7"/>
-        <v>"8697",</v>
+        <v>"9810",</v>
       </c>
       <c r="F92" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810",</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>147</v>
+      <c r="A93" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="6"/>
-        <v>8766</v>
+        <v>4182</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
@@ -5598,20 +5604,20 @@
       </c>
       <c r="E93" t="str">
         <f t="shared" si="7"/>
-        <v>"8766",</v>
+        <v>"4182",</v>
       </c>
       <c r="F93" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182",</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>105</v>
+      <c r="A94" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" ref="B94:B114" si="9">RIGHT(A94,4)</f>
-        <v>8804</v>
+        <v>1801</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
@@ -5621,20 +5627,20 @@
       </c>
       <c r="E94" t="str">
         <f t="shared" ref="E94:E114" si="10">C94&amp;B94&amp;C94&amp;D94</f>
-        <v>"8804",</v>
+        <v>"1801",</v>
       </c>
       <c r="F94" s="2" t="str">
         <f t="shared" ref="F94:F114" si="11">F93&amp;E94</f>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801",</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>79</v>
+      <c r="A95" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="9"/>
-        <v>8919</v>
+        <v>9531</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
@@ -5644,20 +5650,20 @@
       </c>
       <c r="E95" t="str">
         <f t="shared" si="10"/>
-        <v>"8919",</v>
+        <v>"9531",</v>
       </c>
       <c r="F95" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531",</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>106</v>
+      <c r="A96" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="9"/>
-        <v>9062</v>
+        <v>9375</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
@@ -5667,20 +5673,20 @@
       </c>
       <c r="E96" t="str">
         <f t="shared" si="10"/>
-        <v>"9062",</v>
+        <v>"9375",</v>
       </c>
       <c r="F96" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375",</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>107</v>
+      <c r="A97" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="9"/>
-        <v>9064</v>
+        <v>8892</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
@@ -5690,20 +5696,20 @@
       </c>
       <c r="E97" t="str">
         <f t="shared" si="10"/>
-        <v>"9064",</v>
+        <v>"8892",</v>
       </c>
       <c r="F97" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892",</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>108</v>
+      <c r="A98" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="9"/>
-        <v>9086</v>
+        <v>6750</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
@@ -5713,16 +5719,16 @@
       </c>
       <c r="E98" t="str">
         <f t="shared" si="10"/>
-        <v>"9086",</v>
+        <v>"6750",</v>
       </c>
       <c r="F98" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892","6750",</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="9"/>
@@ -5740,12 +5746,12 @@
       </c>
       <c r="F99" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892","6750","9101",</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="9"/>
@@ -5763,12 +5769,12 @@
       </c>
       <c r="F100" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892","6750","9101","9104",</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="9"/>
@@ -5786,12 +5792,12 @@
       </c>
       <c r="F101" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892","6750","9101","9104","9107",</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="9"/>
@@ -5809,12 +5815,12 @@
       </c>
       <c r="F102" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892","6750","9101","9104","9107","9375",</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="9"/>
@@ -5832,12 +5838,12 @@
       </c>
       <c r="F103" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892","6750","9101","9104","9107","9375","9502",</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="9"/>
@@ -5855,12 +5861,12 @@
       </c>
       <c r="F104" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892","6750","9101","9104","9107","9375","9502","9503",</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="9"/>
@@ -5878,12 +5884,12 @@
       </c>
       <c r="F105" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892","6750","9101","9104","9107","9375","9502","9503","9504",</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="9"/>
@@ -5901,12 +5907,12 @@
       </c>
       <c r="F106" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892","6750","9101","9104","9107","9375","9502","9503","9504","9506",</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="9"/>
@@ -5924,12 +5930,12 @@
       </c>
       <c r="F107" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892","6750","9101","9104","9107","9375","9502","9503","9504","9506","9508",</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="9"/>
@@ -5947,12 +5953,12 @@
       </c>
       <c r="F108" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892","6750","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509",</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="9"/>
@@ -5970,12 +5976,12 @@
       </c>
       <c r="F109" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892","6750","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513",</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="9"/>
@@ -5993,12 +5999,12 @@
       </c>
       <c r="F110" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892","6750","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531",</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="9"/>
@@ -6016,12 +6022,12 @@
       </c>
       <c r="F111" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892","6750","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532",</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="9"/>
@@ -6039,12 +6045,12 @@
       </c>
       <c r="F112" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532","9719",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892","6750","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532","9719",</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="9"/>
@@ -6062,12 +6068,12 @@
       </c>
       <c r="F113" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532","9719","9735",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892","6750","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532","9719","9735",</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="9"/>
@@ -6085,7 +6091,7 @@
       </c>
       <c r="F114" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>"4816","7148","9513","5541","9501","7453","9101","6770","9766","6028","7205","3659","5334","6762","8303","4507","8283","1605","3382","4661","4507","4527","4528","4543","4684","4732","4768","4902","5108","5214","5232","5334","5393","5631","6055","6146","6178","6235","6273","6326","6361","6367","6448","6472","6479","6504","6506","6594","6645","6674","6724","6727","6728","6758","6845","6857","6861","6869","6902","6920","6954","6965","6971","6976","6981","6988","7148","7259","7459","7550","7701","7731","7733","7735","7751","7846","7911","7912","7974","8001","8002","8031","8035","8053","8058","8113","8303","8309","8424","8473","8593","8697","8766","8804","8919","9062","9064","9086","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532","9719","9735","9810",</v>
+        <v>"5707","9517","7747","5021","9101","5541","9104","1605","4527","9107","5714","5019","3064","7846","7011","2317","7532","3659","5713","4922","2267","4704","3088","2201","6856","1812","4612","3349","3769","7832","1719","3038","9086","8088","8002","4568","7912","2802","9532","6361","9432","1911","8053","5706","5401","9502","9503","7564","2768","4848","9509","9843","7013","5857","5406","1721","9501","9434","1820","9508","5411","8595","1963","8919","1417","5020","3391","2811","2897","5703","7575","2432","9064","4967","2809","9433","8020","7974","2587","6841","2784","9989","7202","1942","9504","1951","9301","6273","4819","8001","5711","9810","4182","1801","9531","9375","8892","6750","9101","9104","9107","9375","9502","9503","9504","9506","9508","9509","9513","9531","9532","9719","9735","9810",</v>
       </c>
     </row>
   </sheetData>
